--- a/output/results — копия.xlsx
+++ b/output/results — копия.xlsx
@@ -346,6207 +346,6207 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>9838457.0</v>
+        <v>9842133.0</v>
       </c>
       <c r="B1" t="n">
-        <v>27818.0</v>
+        <v>24178.0</v>
       </c>
       <c r="C1" t="n">
-        <v>2167.0</v>
+        <v>2131.0</v>
       </c>
       <c r="D1" t="n">
-        <v>5452.0</v>
+        <v>1979.0</v>
       </c>
       <c r="E1" t="n">
-        <v>966.0</v>
+        <v>876.0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>9835252.0</v>
+        <v>9839222.0</v>
       </c>
       <c r="B2" t="n">
-        <v>28869.0</v>
+        <v>24997.0</v>
       </c>
       <c r="C2" t="n">
-        <v>4321.0</v>
+        <v>4223.0</v>
       </c>
       <c r="D2" t="n">
-        <v>3205.0</v>
+        <v>2911.0</v>
       </c>
       <c r="E2" t="n">
-        <v>939.0</v>
+        <v>921.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>9832867.0</v>
+        <v>9836385.0</v>
       </c>
       <c r="B3" t="n">
-        <v>29097.0</v>
+        <v>25734.0</v>
       </c>
       <c r="C3" t="n">
-        <v>6478.0</v>
+        <v>6323.0</v>
       </c>
       <c r="D3" t="n">
-        <v>2385.0</v>
+        <v>2837.0</v>
       </c>
       <c r="E3" t="n">
-        <v>937.0</v>
+        <v>978.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>9830923.0</v>
+        <v>9833572.0</v>
       </c>
       <c r="B4" t="n">
-        <v>28833.0</v>
+        <v>26542.0</v>
       </c>
       <c r="C4" t="n">
-        <v>8686.0</v>
+        <v>8328.0</v>
       </c>
       <c r="D4" t="n">
-        <v>1944.0</v>
+        <v>2813.0</v>
       </c>
       <c r="E4" t="n">
-        <v>1089.0</v>
+        <v>1246.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>9829409.0</v>
+        <v>9830840.0</v>
       </c>
       <c r="B5" t="n">
-        <v>28171.0</v>
+        <v>27215.0</v>
       </c>
       <c r="C5" t="n">
-        <v>10862.0</v>
+        <v>10387.0</v>
       </c>
       <c r="D5" t="n">
-        <v>1514.0</v>
+        <v>2732.0</v>
       </c>
       <c r="E5" t="n">
-        <v>1413.0</v>
+        <v>1163.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>9828316.0</v>
+        <v>9828373.0</v>
       </c>
       <c r="B6" t="n">
-        <v>27072.0</v>
+        <v>27478.0</v>
       </c>
       <c r="C6" t="n">
-        <v>13054.0</v>
+        <v>12591.0</v>
       </c>
       <c r="D6" t="n">
-        <v>1093.0</v>
+        <v>2467.0</v>
       </c>
       <c r="E6" t="n">
-        <v>1638.0</v>
+        <v>1189.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>9827453.0</v>
+        <v>9825992.0</v>
       </c>
       <c r="B7" t="n">
-        <v>25815.0</v>
+        <v>27550.0</v>
       </c>
       <c r="C7" t="n">
-        <v>15174.0</v>
+        <v>14900.0</v>
       </c>
       <c r="D7" t="n">
-        <v>863.0</v>
+        <v>2381.0</v>
       </c>
       <c r="E7" t="n">
-        <v>1170.0</v>
+        <v>1230.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>9826419.0</v>
+        <v>9823484.0</v>
       </c>
       <c r="B8" t="n">
-        <v>24666.0</v>
+        <v>27457.0</v>
       </c>
       <c r="C8" t="n">
-        <v>17357.0</v>
+        <v>17501.0</v>
       </c>
       <c r="D8" t="n">
-        <v>1034.0</v>
+        <v>2508.0</v>
       </c>
       <c r="E8" t="n">
-        <v>900.0</v>
+        <v>1102.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>9825527.0</v>
+        <v>9821038.0</v>
       </c>
       <c r="B9" t="n">
-        <v>23431.0</v>
+        <v>27258.0</v>
       </c>
       <c r="C9" t="n">
-        <v>19484.0</v>
+        <v>20146.0</v>
       </c>
       <c r="D9" t="n">
-        <v>892.0</v>
+        <v>2446.0</v>
       </c>
       <c r="E9" t="n">
-        <v>681.0</v>
+        <v>1072.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9824688.0</v>
+        <v>9818688.0</v>
       </c>
       <c r="B10" t="n">
-        <v>22066.0</v>
+        <v>27043.0</v>
       </c>
       <c r="C10" t="n">
-        <v>21688.0</v>
+        <v>22711.0</v>
       </c>
       <c r="D10" t="n">
-        <v>839.0</v>
+        <v>2350.0</v>
       </c>
       <c r="E10" t="n">
-        <v>539.0</v>
+        <v>1086.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>9823963.0</v>
+        <v>9816355.0</v>
       </c>
       <c r="B11" t="n">
-        <v>20302.0</v>
+        <v>26981.0</v>
       </c>
       <c r="C11" t="n">
-        <v>24177.0</v>
+        <v>25106.0</v>
       </c>
       <c r="D11" t="n">
-        <v>725.0</v>
+        <v>2333.0</v>
       </c>
       <c r="E11" t="n">
-        <v>431.0</v>
+        <v>1075.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>9823272.0</v>
+        <v>9814034.0</v>
       </c>
       <c r="B12" t="n">
-        <v>18204.0</v>
+        <v>26801.0</v>
       </c>
       <c r="C12" t="n">
-        <v>26966.0</v>
+        <v>27607.0</v>
       </c>
       <c r="D12" t="n">
-        <v>691.0</v>
+        <v>2321.0</v>
       </c>
       <c r="E12" t="n">
-        <v>376.0</v>
+        <v>1041.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>9822773.0</v>
+        <v>9811841.0</v>
       </c>
       <c r="B13" t="n">
-        <v>15714.0</v>
+        <v>25978.0</v>
       </c>
       <c r="C13" t="n">
-        <v>29955.0</v>
+        <v>30623.0</v>
       </c>
       <c r="D13" t="n">
-        <v>499.0</v>
+        <v>2193.0</v>
       </c>
       <c r="E13" t="n">
-        <v>386.0</v>
+        <v>1065.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>9822326.0</v>
+        <v>9809693.0</v>
       </c>
       <c r="B14" t="n">
-        <v>13304.0</v>
+        <v>25351.0</v>
       </c>
       <c r="C14" t="n">
-        <v>32812.0</v>
+        <v>33398.0</v>
       </c>
       <c r="D14" t="n">
-        <v>447.0</v>
+        <v>2148.0</v>
       </c>
       <c r="E14" t="n">
-        <v>369.0</v>
+        <v>1034.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>9821728.0</v>
+        <v>9809459.0</v>
       </c>
       <c r="B15" t="n">
-        <v>11354.0</v>
+        <v>24859.0</v>
       </c>
       <c r="C15" t="n">
-        <v>35360.0</v>
+        <v>34124.0</v>
       </c>
       <c r="D15" t="n">
-        <v>598.0</v>
+        <v>2365.0</v>
       </c>
       <c r="E15" t="n">
-        <v>304.0</v>
+        <v>998.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>9821204.0</v>
+        <v>9809313.0</v>
       </c>
       <c r="B16" t="n">
-        <v>9905.0</v>
+        <v>24408.0</v>
       </c>
       <c r="C16" t="n">
-        <v>37333.0</v>
+        <v>34721.0</v>
       </c>
       <c r="D16" t="n">
-        <v>524.0</v>
+        <v>2238.0</v>
       </c>
       <c r="E16" t="n">
-        <v>285.0</v>
+        <v>927.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>9820736.0</v>
+        <v>9809095.0</v>
       </c>
       <c r="B17" t="n">
-        <v>8772.0</v>
+        <v>24051.0</v>
       </c>
       <c r="C17" t="n">
-        <v>38934.0</v>
+        <v>35296.0</v>
       </c>
       <c r="D17" t="n">
-        <v>468.0</v>
+        <v>2318.0</v>
       </c>
       <c r="E17" t="n">
-        <v>237.0</v>
+        <v>968.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>9820263.0</v>
+        <v>9808728.0</v>
       </c>
       <c r="B18" t="n">
-        <v>8023.0</v>
+        <v>23943.0</v>
       </c>
       <c r="C18" t="n">
-        <v>40156.0</v>
+        <v>35771.0</v>
       </c>
       <c r="D18" t="n">
-        <v>473.0</v>
+        <v>2372.0</v>
       </c>
       <c r="E18" t="n">
-        <v>197.0</v>
+        <v>958.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>9819835.0</v>
+        <v>9808420.0</v>
       </c>
       <c r="B19" t="n">
-        <v>7439.0</v>
+        <v>23814.0</v>
       </c>
       <c r="C19" t="n">
-        <v>41168.0</v>
+        <v>36208.0</v>
       </c>
       <c r="D19" t="n">
-        <v>428.0</v>
+        <v>2367.0</v>
       </c>
       <c r="E19" t="n">
-        <v>211.0</v>
+        <v>936.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>9819434.0</v>
+        <v>9808538.0</v>
       </c>
       <c r="B20" t="n">
-        <v>6878.0</v>
+        <v>23423.0</v>
       </c>
       <c r="C20" t="n">
-        <v>42130.0</v>
+        <v>36481.0</v>
       </c>
       <c r="D20" t="n">
-        <v>401.0</v>
+        <v>2086.0</v>
       </c>
       <c r="E20" t="n">
-        <v>226.0</v>
+        <v>938.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>9819062.0</v>
+        <v>9808663.0</v>
       </c>
       <c r="B21" t="n">
-        <v>6383.0</v>
+        <v>23059.0</v>
       </c>
       <c r="C21" t="n">
-        <v>42997.0</v>
+        <v>36720.0</v>
       </c>
       <c r="D21" t="n">
-        <v>372.0</v>
+        <v>2184.0</v>
       </c>
       <c r="E21" t="n">
-        <v>200.0</v>
+        <v>997.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>9818646.0</v>
+        <v>9808887.0</v>
       </c>
       <c r="B22" t="n">
-        <v>5932.0</v>
+        <v>23025.0</v>
       </c>
       <c r="C22" t="n">
-        <v>43864.0</v>
+        <v>36530.0</v>
       </c>
       <c r="D22" t="n">
-        <v>416.0</v>
+        <v>2377.0</v>
       </c>
       <c r="E22" t="n">
-        <v>178.0</v>
+        <v>968.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>9818235.0</v>
+        <v>9809241.0</v>
       </c>
       <c r="B23" t="n">
-        <v>5624.0</v>
+        <v>22923.0</v>
       </c>
       <c r="C23" t="n">
-        <v>44583.0</v>
+        <v>36278.0</v>
       </c>
       <c r="D23" t="n">
-        <v>411.0</v>
+        <v>2291.0</v>
       </c>
       <c r="E23" t="n">
-        <v>176.0</v>
+        <v>950.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>9817837.0</v>
+        <v>9809456.0</v>
       </c>
       <c r="B24" t="n">
-        <v>5411.0</v>
+        <v>22929.0</v>
       </c>
       <c r="C24" t="n">
-        <v>45194.0</v>
+        <v>36057.0</v>
       </c>
       <c r="D24" t="n">
-        <v>398.0</v>
+        <v>2350.0</v>
       </c>
       <c r="E24" t="n">
-        <v>159.0</v>
+        <v>935.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>9817432.0</v>
+        <v>9809475.0</v>
       </c>
       <c r="B25" t="n">
-        <v>5267.0</v>
+        <v>23120.0</v>
       </c>
       <c r="C25" t="n">
-        <v>45743.0</v>
+        <v>35847.0</v>
       </c>
       <c r="D25" t="n">
-        <v>405.0</v>
+        <v>2376.0</v>
       </c>
       <c r="E25" t="n">
-        <v>179.0</v>
+        <v>908.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>9817059.0</v>
+        <v>9809603.0</v>
       </c>
       <c r="B26" t="n">
-        <v>5085.0</v>
+        <v>23360.0</v>
       </c>
       <c r="C26" t="n">
-        <v>46298.0</v>
+        <v>35479.0</v>
       </c>
       <c r="D26" t="n">
-        <v>373.0</v>
+        <v>2373.0</v>
       </c>
       <c r="E26" t="n">
-        <v>157.0</v>
+        <v>972.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>9816725.0</v>
+        <v>9810498.0</v>
       </c>
       <c r="B27" t="n">
-        <v>4900.0</v>
+        <v>23052.0</v>
       </c>
       <c r="C27" t="n">
-        <v>46817.0</v>
+        <v>34892.0</v>
       </c>
       <c r="D27" t="n">
-        <v>334.0</v>
+        <v>2121.0</v>
       </c>
       <c r="E27" t="n">
-        <v>149.0</v>
+        <v>989.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>9816424.0</v>
+        <v>9811050.0</v>
       </c>
       <c r="B28" t="n">
-        <v>4709.0</v>
+        <v>22974.0</v>
       </c>
       <c r="C28" t="n">
-        <v>47309.0</v>
+        <v>34418.0</v>
       </c>
       <c r="D28" t="n">
-        <v>301.0</v>
+        <v>2223.0</v>
       </c>
       <c r="E28" t="n">
-        <v>175.0</v>
+        <v>1034.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>9816057.0</v>
+        <v>9811489.0</v>
       </c>
       <c r="B29" t="n">
-        <v>4609.0</v>
+        <v>23109.0</v>
       </c>
       <c r="C29" t="n">
-        <v>47776.0</v>
+        <v>33844.0</v>
       </c>
       <c r="D29" t="n">
-        <v>367.0</v>
+        <v>2418.0</v>
       </c>
       <c r="E29" t="n">
-        <v>192.0</v>
+        <v>974.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>9815654.0</v>
+        <v>9811810.0</v>
       </c>
       <c r="B30" t="n">
-        <v>4545.0</v>
+        <v>23094.0</v>
       </c>
       <c r="C30" t="n">
-        <v>48243.0</v>
+        <v>33538.0</v>
       </c>
       <c r="D30" t="n">
-        <v>403.0</v>
+        <v>2368.0</v>
       </c>
       <c r="E30" t="n">
-        <v>151.0</v>
+        <v>946.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>9817440.0</v>
+        <v>9812105.0</v>
       </c>
       <c r="B31" t="n">
-        <v>4494.0</v>
+        <v>23103.0</v>
       </c>
       <c r="C31" t="n">
-        <v>46508.0</v>
+        <v>33234.0</v>
       </c>
       <c r="D31" t="n">
-        <v>381.0</v>
+        <v>2380.0</v>
       </c>
       <c r="E31" t="n">
-        <v>138.0</v>
+        <v>940.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>9819240.0</v>
+        <v>9812176.0</v>
       </c>
       <c r="B32" t="n">
-        <v>4420.0</v>
+        <v>23236.0</v>
       </c>
       <c r="C32" t="n">
-        <v>44782.0</v>
+        <v>33030.0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.0</v>
+        <v>2409.0</v>
       </c>
       <c r="E32" t="n">
-        <v>133.0</v>
+        <v>1006.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>9820785.0</v>
+        <v>9811687.0</v>
       </c>
       <c r="B33" t="n">
-        <v>4621.0</v>
+        <v>24036.0</v>
       </c>
       <c r="C33" t="n">
-        <v>43036.0</v>
+        <v>32719.0</v>
       </c>
       <c r="D33" t="n">
-        <v>612.0</v>
+        <v>2985.0</v>
       </c>
       <c r="E33" t="n">
-        <v>135.0</v>
+        <v>988.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>9822592.0</v>
+        <v>9811780.0</v>
       </c>
       <c r="B34" t="n">
-        <v>4630.0</v>
+        <v>24096.0</v>
       </c>
       <c r="C34" t="n">
-        <v>41220.0</v>
+        <v>32566.0</v>
       </c>
       <c r="D34" t="n">
-        <v>401.0</v>
+        <v>2384.0</v>
       </c>
       <c r="E34" t="n">
-        <v>155.0</v>
+        <v>1005.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>9824331.0</v>
+        <v>9812068.0</v>
       </c>
       <c r="B35" t="n">
-        <v>4681.0</v>
+        <v>23923.0</v>
       </c>
       <c r="C35" t="n">
-        <v>39430.0</v>
+        <v>32451.0</v>
       </c>
       <c r="D35" t="n">
-        <v>437.0</v>
+        <v>2260.0</v>
       </c>
       <c r="E35" t="n">
-        <v>146.0</v>
+        <v>1022.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>9825509.0</v>
+        <v>9811001.0</v>
       </c>
       <c r="B36" t="n">
-        <v>5285.0</v>
+        <v>25054.0</v>
       </c>
       <c r="C36" t="n">
-        <v>37648.0</v>
+        <v>32387.0</v>
       </c>
       <c r="D36" t="n">
-        <v>1014.0</v>
+        <v>3478.0</v>
       </c>
       <c r="E36" t="n">
-        <v>183.0</v>
+        <v>1100.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>9826601.0</v>
+        <v>9810020.0</v>
       </c>
       <c r="B37" t="n">
-        <v>5959.0</v>
+        <v>26103.0</v>
       </c>
       <c r="C37" t="n">
-        <v>35882.0</v>
+        <v>32319.0</v>
       </c>
       <c r="D37" t="n">
-        <v>1028.0</v>
+        <v>3374.0</v>
       </c>
       <c r="E37" t="n">
-        <v>244.0</v>
+        <v>1083.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>9827571.0</v>
+        <v>9808601.0</v>
       </c>
       <c r="B38" t="n">
-        <v>6804.0</v>
+        <v>27587.0</v>
       </c>
       <c r="C38" t="n">
-        <v>34067.0</v>
+        <v>32254.0</v>
       </c>
       <c r="D38" t="n">
-        <v>1213.0</v>
+        <v>3763.0</v>
       </c>
       <c r="E38" t="n">
-        <v>215.0</v>
+        <v>1185.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>9828337.0</v>
+        <v>9806702.0</v>
       </c>
       <c r="B39" t="n">
-        <v>7780.0</v>
+        <v>29407.0</v>
       </c>
       <c r="C39" t="n">
-        <v>32325.0</v>
+        <v>32333.0</v>
       </c>
       <c r="D39" t="n">
-        <v>1361.0</v>
+        <v>4084.0</v>
       </c>
       <c r="E39" t="n">
-        <v>228.0</v>
+        <v>1308.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>9828728.0</v>
+        <v>9804387.0</v>
       </c>
       <c r="B40" t="n">
-        <v>9251.0</v>
+        <v>31582.0</v>
       </c>
       <c r="C40" t="n">
-        <v>30463.0</v>
+        <v>32473.0</v>
       </c>
       <c r="D40" t="n">
-        <v>1813.0</v>
+        <v>4448.0</v>
       </c>
       <c r="E40" t="n">
-        <v>392.0</v>
+        <v>1501.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>9829684.0</v>
+        <v>9803093.0</v>
       </c>
       <c r="B41" t="n">
-        <v>10387.0</v>
+        <v>32961.0</v>
       </c>
       <c r="C41" t="n">
-        <v>28371.0</v>
+        <v>32388.0</v>
       </c>
       <c r="D41" t="n">
-        <v>1533.0</v>
+        <v>3723.0</v>
       </c>
       <c r="E41" t="n">
-        <v>485.0</v>
+        <v>1590.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>9830884.0</v>
+        <v>9801920.0</v>
       </c>
       <c r="B42" t="n">
-        <v>11512.0</v>
+        <v>33951.0</v>
       </c>
       <c r="C42" t="n">
-        <v>26046.0</v>
+        <v>32571.0</v>
       </c>
       <c r="D42" t="n">
-        <v>1589.0</v>
+        <v>3474.0</v>
       </c>
       <c r="E42" t="n">
-        <v>570.0</v>
+        <v>1721.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>9831229.0</v>
+        <v>9798670.0</v>
       </c>
       <c r="B43" t="n">
-        <v>13669.0</v>
+        <v>36981.0</v>
       </c>
       <c r="C43" t="n">
-        <v>23544.0</v>
+        <v>32791.0</v>
       </c>
       <c r="D43" t="n">
-        <v>2644.0</v>
+        <v>5533.0</v>
       </c>
       <c r="E43" t="n">
-        <v>628.0</v>
+        <v>1853.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>9831698.0</v>
+        <v>9795716.0</v>
       </c>
       <c r="B44" t="n">
-        <v>15529.0</v>
+        <v>39760.0</v>
       </c>
       <c r="C44" t="n">
-        <v>21215.0</v>
+        <v>32966.0</v>
       </c>
       <c r="D44" t="n">
-        <v>2388.0</v>
+        <v>5337.0</v>
       </c>
       <c r="E44" t="n">
-        <v>715.0</v>
+        <v>1828.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>9831651.0</v>
+        <v>9792486.0</v>
       </c>
       <c r="B45" t="n">
-        <v>17540.0</v>
+        <v>42851.0</v>
       </c>
       <c r="C45" t="n">
-        <v>19251.0</v>
+        <v>33105.0</v>
       </c>
       <c r="D45" t="n">
-        <v>2595.0</v>
+        <v>5601.0</v>
       </c>
       <c r="E45" t="n">
-        <v>706.0</v>
+        <v>1915.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>9830422.0</v>
+        <v>9788460.0</v>
       </c>
       <c r="B46" t="n">
-        <v>19982.0</v>
+        <v>46369.0</v>
       </c>
       <c r="C46" t="n">
-        <v>18038.0</v>
+        <v>33613.0</v>
       </c>
       <c r="D46" t="n">
-        <v>3202.0</v>
+        <v>6302.0</v>
       </c>
       <c r="E46" t="n">
-        <v>820.0</v>
+        <v>2173.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>9828365.0</v>
+        <v>9784017.0</v>
       </c>
       <c r="B47" t="n">
-        <v>22787.0</v>
+        <v>50119.0</v>
       </c>
       <c r="C47" t="n">
-        <v>17290.0</v>
+        <v>34306.0</v>
       </c>
       <c r="D47" t="n">
-        <v>3658.0</v>
+        <v>6628.0</v>
       </c>
       <c r="E47" t="n">
-        <v>1010.0</v>
+        <v>2341.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>9826520.0</v>
+        <v>9780876.0</v>
       </c>
       <c r="B48" t="n">
-        <v>24793.0</v>
+        <v>52492.0</v>
       </c>
       <c r="C48" t="n">
-        <v>17129.0</v>
+        <v>35074.0</v>
       </c>
       <c r="D48" t="n">
-        <v>3067.0</v>
+        <v>5465.0</v>
       </c>
       <c r="E48" t="n">
-        <v>1198.0</v>
+        <v>2399.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>9824212.0</v>
+        <v>9778287.0</v>
       </c>
       <c r="B49" t="n">
-        <v>26995.0</v>
+        <v>53946.0</v>
       </c>
       <c r="C49" t="n">
-        <v>17235.0</v>
+        <v>36209.0</v>
       </c>
       <c r="D49" t="n">
-        <v>3320.0</v>
+        <v>5022.0</v>
       </c>
       <c r="E49" t="n">
-        <v>1251.0</v>
+        <v>2700.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>9819345.0</v>
+        <v>9772777.0</v>
       </c>
       <c r="B50" t="n">
-        <v>31516.0</v>
+        <v>58210.0</v>
       </c>
       <c r="C50" t="n">
-        <v>17581.0</v>
+        <v>37455.0</v>
       </c>
       <c r="D50" t="n">
-        <v>5829.0</v>
+        <v>7857.0</v>
       </c>
       <c r="E50" t="n">
-        <v>1443.0</v>
+        <v>2793.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>9815212.0</v>
+        <v>9767598.0</v>
       </c>
       <c r="B51" t="n">
-        <v>34999.0</v>
+        <v>61584.0</v>
       </c>
       <c r="C51" t="n">
-        <v>18231.0</v>
+        <v>39260.0</v>
       </c>
       <c r="D51" t="n">
-        <v>5000.0</v>
+        <v>7504.0</v>
       </c>
       <c r="E51" t="n">
-        <v>1652.0</v>
+        <v>2674.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>9810495.0</v>
+        <v>9762102.0</v>
       </c>
       <c r="B52" t="n">
-        <v>38849.0</v>
+        <v>65077.0</v>
       </c>
       <c r="C52" t="n">
-        <v>19098.0</v>
+        <v>41263.0</v>
       </c>
       <c r="D52" t="n">
-        <v>5584.0</v>
+        <v>7775.0</v>
       </c>
       <c r="E52" t="n">
-        <v>1532.0</v>
+        <v>2697.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>9804660.0</v>
+        <v>9755674.0</v>
       </c>
       <c r="B53" t="n">
-        <v>43452.0</v>
+        <v>69294.0</v>
       </c>
       <c r="C53" t="n">
-        <v>20330.0</v>
+        <v>43474.0</v>
       </c>
       <c r="D53" t="n">
-        <v>6554.0</v>
+        <v>8692.0</v>
       </c>
       <c r="E53" t="n">
-        <v>1560.0</v>
+        <v>3010.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>9797669.0</v>
+        <v>9748837.0</v>
       </c>
       <c r="B54" t="n">
-        <v>48816.0</v>
+        <v>73830.0</v>
       </c>
       <c r="C54" t="n">
-        <v>21957.0</v>
+        <v>45775.0</v>
       </c>
       <c r="D54" t="n">
-        <v>7602.0</v>
+        <v>9110.0</v>
       </c>
       <c r="E54" t="n">
-        <v>2171.0</v>
+        <v>3364.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>9791896.0</v>
+        <v>9743833.0</v>
       </c>
       <c r="B55" t="n">
-        <v>52514.0</v>
+        <v>76613.0</v>
       </c>
       <c r="C55" t="n">
-        <v>24032.0</v>
+        <v>47996.0</v>
       </c>
       <c r="D55" t="n">
-        <v>6322.0</v>
+        <v>7348.0</v>
       </c>
       <c r="E55" t="n">
-        <v>2570.0</v>
+        <v>3438.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>9785766.0</v>
+        <v>9739589.0</v>
       </c>
       <c r="B56" t="n">
-        <v>56370.0</v>
+        <v>78016.0</v>
       </c>
       <c r="C56" t="n">
-        <v>26306.0</v>
+        <v>50837.0</v>
       </c>
       <c r="D56" t="n">
-        <v>6685.0</v>
+        <v>6728.0</v>
       </c>
       <c r="E56" t="n">
-        <v>2761.0</v>
+        <v>3768.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>9775382.0</v>
+        <v>9731283.0</v>
       </c>
       <c r="B57" t="n">
-        <v>64345.0</v>
+        <v>83308.0</v>
       </c>
       <c r="C57" t="n">
-        <v>28715.0</v>
+        <v>53851.0</v>
       </c>
       <c r="D57" t="n">
-        <v>10903.0</v>
+        <v>10809.0</v>
       </c>
       <c r="E57" t="n">
-        <v>3013.0</v>
+        <v>3953.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>9766668.0</v>
+        <v>9723717.0</v>
       </c>
       <c r="B58" t="n">
-        <v>70335.0</v>
+        <v>87367.0</v>
       </c>
       <c r="C58" t="n">
-        <v>31439.0</v>
+        <v>57358.0</v>
       </c>
       <c r="D58" t="n">
-        <v>9206.0</v>
+        <v>10124.0</v>
       </c>
       <c r="E58" t="n">
-        <v>3246.0</v>
+        <v>3754.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>9757070.0</v>
+        <v>9715803.0</v>
       </c>
       <c r="B59" t="n">
-        <v>76845.0</v>
+        <v>91452.0</v>
       </c>
       <c r="C59" t="n">
-        <v>34527.0</v>
+        <v>61187.0</v>
       </c>
       <c r="D59" t="n">
-        <v>10065.0</v>
+        <v>10424.0</v>
       </c>
       <c r="E59" t="n">
-        <v>3084.0</v>
+        <v>3806.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>9746109.0</v>
+        <v>9707211.0</v>
       </c>
       <c r="B60" t="n">
-        <v>84074.0</v>
+        <v>96456.0</v>
       </c>
       <c r="C60" t="n">
-        <v>38259.0</v>
+        <v>64775.0</v>
       </c>
       <c r="D60" t="n">
-        <v>11428.0</v>
+        <v>11376.0</v>
       </c>
       <c r="E60" t="n">
-        <v>3394.0</v>
+        <v>4230.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>9733279.0</v>
+        <v>9698187.0</v>
       </c>
       <c r="B61" t="n">
-        <v>92346.0</v>
+        <v>101588.0</v>
       </c>
       <c r="C61" t="n">
-        <v>42817.0</v>
+        <v>68667.0</v>
       </c>
       <c r="D61" t="n">
-        <v>13262.0</v>
+        <v>11902.0</v>
       </c>
       <c r="E61" t="n">
-        <v>4304.0</v>
+        <v>4698.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>9722947.0</v>
+        <v>9691434.0</v>
       </c>
       <c r="B62" t="n">
-        <v>97789.0</v>
+        <v>105065.0</v>
       </c>
       <c r="C62" t="n">
-        <v>47706.0</v>
+        <v>71943.0</v>
       </c>
       <c r="D62" t="n">
-        <v>10760.0</v>
+        <v>9845.0</v>
       </c>
       <c r="E62" t="n">
-        <v>4690.0</v>
+        <v>4598.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>9711677.0</v>
+        <v>9686577.0</v>
       </c>
       <c r="B63" t="n">
-        <v>103877.0</v>
+        <v>105793.0</v>
       </c>
       <c r="C63" t="n">
-        <v>52888.0</v>
+        <v>76072.0</v>
       </c>
       <c r="D63" t="n">
-        <v>11681.0</v>
+        <v>8425.0</v>
       </c>
       <c r="E63" t="n">
-        <v>4933.0</v>
+        <v>4965.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>9694319.0</v>
+        <v>9676254.0</v>
       </c>
       <c r="B64" t="n">
-        <v>115642.0</v>
+        <v>112014.0</v>
       </c>
       <c r="C64" t="n">
-        <v>58481.0</v>
+        <v>80174.0</v>
       </c>
       <c r="D64" t="n">
-        <v>17750.0</v>
+        <v>13916.0</v>
       </c>
       <c r="E64" t="n">
-        <v>5301.0</v>
+        <v>5249.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>9679421.0</v>
+        <v>9667554.0</v>
       </c>
       <c r="B65" t="n">
-        <v>124481.0</v>
+        <v>116273.0</v>
       </c>
       <c r="C65" t="n">
-        <v>64540.0</v>
+        <v>84615.0</v>
       </c>
       <c r="D65" t="n">
-        <v>15284.0</v>
+        <v>12830.0</v>
       </c>
       <c r="E65" t="n">
-        <v>5704.0</v>
+        <v>4865.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>9664161.0</v>
+        <v>9658505.0</v>
       </c>
       <c r="B66" t="n">
-        <v>132890.0</v>
+        <v>120987.0</v>
       </c>
       <c r="C66" t="n">
-        <v>71391.0</v>
+        <v>88950.0</v>
       </c>
       <c r="D66" t="n">
-        <v>15670.0</v>
+        <v>13331.0</v>
       </c>
       <c r="E66" t="n">
-        <v>5328.0</v>
+        <v>4907.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>9646749.0</v>
+        <v>9648748.0</v>
       </c>
       <c r="B67" t="n">
-        <v>142246.0</v>
+        <v>126717.0</v>
       </c>
       <c r="C67" t="n">
-        <v>79447.0</v>
+        <v>92977.0</v>
       </c>
       <c r="D67" t="n">
-        <v>17766.0</v>
+        <v>14232.0</v>
       </c>
       <c r="E67" t="n">
-        <v>5616.0</v>
+        <v>5281.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>9627383.0</v>
+        <v>9638200.0</v>
       </c>
       <c r="B68" t="n">
-        <v>152804.0</v>
+        <v>132614.0</v>
       </c>
       <c r="C68" t="n">
-        <v>88255.0</v>
+        <v>97628.0</v>
       </c>
       <c r="D68" t="n">
-        <v>19734.0</v>
+        <v>15122.0</v>
       </c>
       <c r="E68" t="n">
-        <v>6907.0</v>
+        <v>5728.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>9611858.0</v>
+        <v>9630910.0</v>
       </c>
       <c r="B69" t="n">
-        <v>158756.0</v>
+        <v>135918.0</v>
       </c>
       <c r="C69" t="n">
-        <v>97828.0</v>
+        <v>101614.0</v>
       </c>
       <c r="D69" t="n">
-        <v>15910.0</v>
+        <v>11855.0</v>
       </c>
       <c r="E69" t="n">
-        <v>7694.0</v>
+        <v>6110.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>9595387.0</v>
+        <v>9625667.0</v>
       </c>
       <c r="B70" t="n">
-        <v>165417.0</v>
+        <v>136350.0</v>
       </c>
       <c r="C70" t="n">
-        <v>107638.0</v>
+        <v>106425.0</v>
       </c>
       <c r="D70" t="n">
-        <v>16813.0</v>
+        <v>10568.0</v>
       </c>
       <c r="E70" t="n">
-        <v>7607.0</v>
+        <v>6375.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>9570874.0</v>
+        <v>9614188.0</v>
       </c>
       <c r="B71" t="n">
-        <v>179802.0</v>
+        <v>143347.0</v>
       </c>
       <c r="C71" t="n">
-        <v>117766.0</v>
+        <v>110907.0</v>
       </c>
       <c r="D71" t="n">
-        <v>24910.0</v>
+        <v>16996.0</v>
       </c>
       <c r="E71" t="n">
-        <v>8320.0</v>
+        <v>6430.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>9550695.0</v>
+        <v>9604712.0</v>
       </c>
       <c r="B72" t="n">
-        <v>189271.0</v>
+        <v>147321.0</v>
       </c>
       <c r="C72" t="n">
-        <v>128476.0</v>
+        <v>116409.0</v>
       </c>
       <c r="D72" t="n">
-        <v>20643.0</v>
+        <v>15541.0</v>
       </c>
       <c r="E72" t="n">
-        <v>8553.0</v>
+        <v>6231.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>9529463.0</v>
+        <v>9595095.0</v>
       </c>
       <c r="B73" t="n">
-        <v>198855.0</v>
+        <v>151858.0</v>
       </c>
       <c r="C73" t="n">
-        <v>140124.0</v>
+        <v>121489.0</v>
       </c>
       <c r="D73" t="n">
-        <v>21719.0</v>
+        <v>15956.0</v>
       </c>
       <c r="E73" t="n">
-        <v>7835.0</v>
+        <v>6020.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>9506458.0</v>
+        <v>9584599.0</v>
       </c>
       <c r="B74" t="n">
-        <v>208490.0</v>
+        <v>157484.0</v>
       </c>
       <c r="C74" t="n">
-        <v>153494.0</v>
+        <v>126359.0</v>
       </c>
       <c r="D74" t="n">
-        <v>23533.0</v>
+        <v>16868.0</v>
       </c>
       <c r="E74" t="n">
-        <v>8178.0</v>
+        <v>6547.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>9480629.0</v>
+        <v>9573711.0</v>
       </c>
       <c r="B75" t="n">
-        <v>219560.0</v>
+        <v>163459.0</v>
       </c>
       <c r="C75" t="n">
-        <v>168253.0</v>
+        <v>131272.0</v>
       </c>
       <c r="D75" t="n">
-        <v>26413.0</v>
+        <v>17658.0</v>
       </c>
       <c r="E75" t="n">
-        <v>9797.0</v>
+        <v>6990.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>9460793.0</v>
+        <v>9566132.0</v>
       </c>
       <c r="B76" t="n">
-        <v>224237.0</v>
+        <v>166238.0</v>
       </c>
       <c r="C76" t="n">
-        <v>183412.0</v>
+        <v>136072.0</v>
       </c>
       <c r="D76" t="n">
-        <v>20596.0</v>
+        <v>13947.0</v>
       </c>
       <c r="E76" t="n">
-        <v>10507.0</v>
+        <v>7252.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>9440082.0</v>
+        <v>9561617.0</v>
       </c>
       <c r="B77" t="n">
-        <v>229719.0</v>
+        <v>165490.0</v>
       </c>
       <c r="C77" t="n">
-        <v>198641.0</v>
+        <v>141335.0</v>
       </c>
       <c r="D77" t="n">
-        <v>21564.0</v>
+        <v>12212.0</v>
       </c>
       <c r="E77" t="n">
-        <v>10521.0</v>
+        <v>7375.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>9410493.0</v>
+        <v>9549851.0</v>
       </c>
       <c r="B78" t="n">
-        <v>244281.0</v>
+        <v>172374.0</v>
       </c>
       <c r="C78" t="n">
-        <v>213668.0</v>
+        <v>146217.0</v>
       </c>
       <c r="D78" t="n">
-        <v>30650.0</v>
+        <v>19461.0</v>
       </c>
       <c r="E78" t="n">
-        <v>11041.0</v>
+        <v>7693.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>9386174.0</v>
+        <v>9540526.0</v>
       </c>
       <c r="B79" t="n">
-        <v>252961.0</v>
+        <v>176014.0</v>
       </c>
       <c r="C79" t="n">
-        <v>229307.0</v>
+        <v>151902.0</v>
       </c>
       <c r="D79" t="n">
-        <v>25437.0</v>
+        <v>17896.0</v>
       </c>
       <c r="E79" t="n">
-        <v>11308.0</v>
+        <v>7074.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>9361664.0</v>
+        <v>9531039.0</v>
       </c>
       <c r="B80" t="n">
-        <v>260920.0</v>
+        <v>180038.0</v>
       </c>
       <c r="C80" t="n">
-        <v>245858.0</v>
+        <v>157365.0</v>
       </c>
       <c r="D80" t="n">
-        <v>25818.0</v>
+        <v>18104.0</v>
       </c>
       <c r="E80" t="n">
-        <v>10428.0</v>
+        <v>6791.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>9335552.0</v>
+        <v>9520575.0</v>
       </c>
       <c r="B81" t="n">
-        <v>268775.0</v>
+        <v>185349.0</v>
       </c>
       <c r="C81" t="n">
-        <v>264115.0</v>
+        <v>162518.0</v>
       </c>
       <c r="D81" t="n">
-        <v>27629.0</v>
+        <v>18966.0</v>
       </c>
       <c r="E81" t="n">
-        <v>10168.0</v>
+        <v>7570.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>9307114.0</v>
+        <v>9509724.0</v>
       </c>
       <c r="B82" t="n">
-        <v>277754.0</v>
+        <v>190969.0</v>
       </c>
       <c r="C82" t="n">
-        <v>283574.0</v>
+        <v>167749.0</v>
       </c>
       <c r="D82" t="n">
-        <v>30172.0</v>
+        <v>20076.0</v>
       </c>
       <c r="E82" t="n">
-        <v>12258.0</v>
+        <v>8131.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>9285495.0</v>
+        <v>9502488.0</v>
       </c>
       <c r="B83" t="n">
-        <v>279430.0</v>
+        <v>193379.0</v>
       </c>
       <c r="C83" t="n">
-        <v>303517.0</v>
+        <v>172575.0</v>
       </c>
       <c r="D83" t="n">
-        <v>23570.0</v>
+        <v>15787.0</v>
       </c>
       <c r="E83" t="n">
-        <v>12892.0</v>
+        <v>8204.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>9263536.0</v>
+        <v>9498575.0</v>
       </c>
       <c r="B84" t="n">
-        <v>281881.0</v>
+        <v>191951.0</v>
       </c>
       <c r="C84" t="n">
-        <v>323025.0</v>
+        <v>177916.0</v>
       </c>
       <c r="D84" t="n">
-        <v>24197.0</v>
+        <v>14049.0</v>
       </c>
       <c r="E84" t="n">
-        <v>12512.0</v>
+        <v>8429.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>9231815.0</v>
+        <v>9486610.0</v>
       </c>
       <c r="B85" t="n">
-        <v>294660.0</v>
+        <v>198805.0</v>
       </c>
       <c r="C85" t="n">
-        <v>341967.0</v>
+        <v>183027.0</v>
       </c>
       <c r="D85" t="n">
-        <v>34345.0</v>
+        <v>21964.0</v>
       </c>
       <c r="E85" t="n">
-        <v>12848.0</v>
+        <v>8811.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>9206650.0</v>
+        <v>9478090.0</v>
       </c>
       <c r="B86" t="n">
-        <v>300391.0</v>
+        <v>202082.0</v>
       </c>
       <c r="C86" t="n">
-        <v>361401.0</v>
+        <v>188270.0</v>
       </c>
       <c r="D86" t="n">
-        <v>27994.0</v>
+        <v>20087.0</v>
       </c>
       <c r="E86" t="n">
-        <v>12811.0</v>
+        <v>8303.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>9181698.0</v>
+        <v>9469106.0</v>
       </c>
       <c r="B87" t="n">
-        <v>305056.0</v>
+        <v>206201.0</v>
       </c>
       <c r="C87" t="n">
-        <v>381688.0</v>
+        <v>193135.0</v>
       </c>
       <c r="D87" t="n">
-        <v>27880.0</v>
+        <v>20403.0</v>
       </c>
       <c r="E87" t="n">
-        <v>11587.0</v>
+        <v>7914.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>9155042.0</v>
+        <v>9459102.0</v>
       </c>
       <c r="B88" t="n">
-        <v>309514.0</v>
+        <v>211439.0</v>
       </c>
       <c r="C88" t="n">
-        <v>403886.0</v>
+        <v>197901.0</v>
       </c>
       <c r="D88" t="n">
-        <v>29872.0</v>
+        <v>21246.0</v>
       </c>
       <c r="E88" t="n">
-        <v>11574.0</v>
+        <v>8646.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>9126394.0</v>
+        <v>9448510.0</v>
       </c>
       <c r="B89" t="n">
-        <v>315559.0</v>
+        <v>216867.0</v>
       </c>
       <c r="C89" t="n">
-        <v>426489.0</v>
+        <v>203065.0</v>
       </c>
       <c r="D89" t="n">
-        <v>32203.0</v>
+        <v>22275.0</v>
       </c>
       <c r="E89" t="n">
-        <v>13463.0</v>
+        <v>9096.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>9105822.0</v>
+        <v>9442291.0</v>
       </c>
       <c r="B90" t="n">
-        <v>313586.0</v>
+        <v>218445.0</v>
       </c>
       <c r="C90" t="n">
-        <v>449034.0</v>
+        <v>207706.0</v>
       </c>
       <c r="D90" t="n">
-        <v>24771.0</v>
+        <v>17387.0</v>
       </c>
       <c r="E90" t="n">
-        <v>14071.0</v>
+        <v>9256.0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>9085187.0</v>
+        <v>9439780.0</v>
       </c>
       <c r="B91" t="n">
-        <v>313118.0</v>
+        <v>216232.0</v>
       </c>
       <c r="C91" t="n">
-        <v>470137.0</v>
+        <v>212430.0</v>
       </c>
       <c r="D91" t="n">
-        <v>25625.0</v>
+        <v>15471.0</v>
       </c>
       <c r="E91" t="n">
-        <v>13764.0</v>
+        <v>9442.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>9054683.0</v>
+        <v>9428172.0</v>
       </c>
       <c r="B92" t="n">
-        <v>323141.0</v>
+        <v>223219.0</v>
       </c>
       <c r="C92" t="n">
-        <v>490618.0</v>
+        <v>217051.0</v>
       </c>
       <c r="D92" t="n">
-        <v>35821.0</v>
+        <v>24185.0</v>
       </c>
       <c r="E92" t="n">
-        <v>13710.0</v>
+        <v>9746.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>9031361.0</v>
+        <v>9420505.0</v>
       </c>
       <c r="B93" t="n">
-        <v>326140.0</v>
+        <v>225630.0</v>
       </c>
       <c r="C93" t="n">
-        <v>510941.0</v>
+        <v>222307.0</v>
       </c>
       <c r="D93" t="n">
-        <v>28915.0</v>
+        <v>21923.0</v>
       </c>
       <c r="E93" t="n">
-        <v>13605.0</v>
+        <v>8920.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>9008329.0</v>
+        <v>9412058.0</v>
       </c>
       <c r="B94" t="n">
-        <v>328636.0</v>
+        <v>229337.0</v>
       </c>
       <c r="C94" t="n">
-        <v>531477.0</v>
+        <v>227047.0</v>
       </c>
       <c r="D94" t="n">
-        <v>29017.0</v>
+        <v>22527.0</v>
       </c>
       <c r="E94" t="n">
-        <v>12362.0</v>
+        <v>8680.0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>8983982.0</v>
+        <v>9402646.0</v>
       </c>
       <c r="B95" t="n">
-        <v>331129.0</v>
+        <v>234245.0</v>
       </c>
       <c r="C95" t="n">
-        <v>553331.0</v>
+        <v>231551.0</v>
       </c>
       <c r="D95" t="n">
-        <v>30792.0</v>
+        <v>23067.0</v>
       </c>
       <c r="E95" t="n">
-        <v>12117.0</v>
+        <v>9218.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>8958887.0</v>
+        <v>9392633.0</v>
       </c>
       <c r="B96" t="n">
-        <v>334103.0</v>
+        <v>239821.0</v>
       </c>
       <c r="C96" t="n">
-        <v>575452.0</v>
+        <v>235988.0</v>
       </c>
       <c r="D96" t="n">
-        <v>32356.0</v>
+        <v>24469.0</v>
       </c>
       <c r="E96" t="n">
-        <v>14000.0</v>
+        <v>10011.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>8942345.0</v>
+        <v>9387009.0</v>
       </c>
       <c r="B97" t="n">
-        <v>329435.0</v>
+        <v>241046.0</v>
       </c>
       <c r="C97" t="n">
-        <v>596662.0</v>
+        <v>240387.0</v>
       </c>
       <c r="D97" t="n">
-        <v>24952.0</v>
+        <v>19001.0</v>
       </c>
       <c r="E97" t="n">
-        <v>14650.0</v>
+        <v>10048.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>8925968.0</v>
+        <v>9385652.0</v>
       </c>
       <c r="B98" t="n">
-        <v>326299.0</v>
+        <v>237788.0</v>
       </c>
       <c r="C98" t="n">
-        <v>616175.0</v>
+        <v>245002.0</v>
       </c>
       <c r="D98" t="n">
-        <v>25553.0</v>
+        <v>16834.0</v>
       </c>
       <c r="E98" t="n">
-        <v>13749.0</v>
+        <v>10527.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>8909036.0</v>
+        <v>9380328.0</v>
       </c>
       <c r="B99" t="n">
-        <v>325156.0</v>
+        <v>238652.0</v>
       </c>
       <c r="C99" t="n">
-        <v>634250.0</v>
+        <v>249462.0</v>
       </c>
       <c r="D99" t="n">
-        <v>26890.0</v>
+        <v>20434.0</v>
       </c>
       <c r="E99" t="n">
-        <v>14180.0</v>
+        <v>10498.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>8897515.0</v>
+        <v>9378287.0</v>
       </c>
       <c r="B100" t="n">
-        <v>319358.0</v>
+        <v>235850.0</v>
       </c>
       <c r="C100" t="n">
-        <v>651569.0</v>
+        <v>254305.0</v>
       </c>
       <c r="D100" t="n">
-        <v>21673.0</v>
+        <v>18851.0</v>
       </c>
       <c r="E100" t="n">
-        <v>13911.0</v>
+        <v>9917.0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>8887175.0</v>
+        <v>9376523.0</v>
       </c>
       <c r="B101" t="n">
-        <v>311957.0</v>
+        <v>233153.0</v>
       </c>
       <c r="C101" t="n">
-        <v>669310.0</v>
+        <v>258766.0</v>
       </c>
       <c r="D101" t="n">
-        <v>20865.0</v>
+        <v>18048.0</v>
       </c>
       <c r="E101" t="n">
-        <v>12252.0</v>
+        <v>8941.0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>8877574.0</v>
+        <v>9374847.0</v>
       </c>
       <c r="B102" t="n">
-        <v>303070.0</v>
+        <v>230668.0</v>
       </c>
       <c r="C102" t="n">
-        <v>687798.0</v>
+        <v>262927.0</v>
       </c>
       <c r="D102" t="n">
-        <v>20775.0</v>
+        <v>17684.0</v>
       </c>
       <c r="E102" t="n">
-        <v>11249.0</v>
+        <v>8572.0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>8869466.0</v>
+        <v>9374299.0</v>
       </c>
       <c r="B103" t="n">
-        <v>292336.0</v>
+        <v>227018.0</v>
       </c>
       <c r="C103" t="n">
-        <v>706640.0</v>
+        <v>267125.0</v>
       </c>
       <c r="D103" t="n">
-        <v>20243.0</v>
+        <v>17395.0</v>
       </c>
       <c r="E103" t="n">
-        <v>11336.0</v>
+        <v>8403.0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>8871092.0</v>
+        <v>9378205.0</v>
       </c>
       <c r="B104" t="n">
-        <v>273735.0</v>
+        <v>219497.0</v>
       </c>
       <c r="C104" t="n">
-        <v>723615.0</v>
+        <v>270740.0</v>
       </c>
       <c r="D104" t="n">
-        <v>12272.0</v>
+        <v>11903.0</v>
       </c>
       <c r="E104" t="n">
-        <v>10520.0</v>
+        <v>8195.0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>8871418.0</v>
+        <v>9383932.0</v>
       </c>
       <c r="B105" t="n">
-        <v>259287.0</v>
+        <v>209390.0</v>
       </c>
       <c r="C105" t="n">
-        <v>737737.0</v>
+        <v>275120.0</v>
       </c>
       <c r="D105" t="n">
-        <v>15017.0</v>
+        <v>11957.0</v>
       </c>
       <c r="E105" t="n">
-        <v>9536.0</v>
+        <v>7929.0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>8866083.0</v>
+        <v>9382870.0</v>
       </c>
       <c r="B106" t="n">
-        <v>252095.0</v>
+        <v>206274.0</v>
       </c>
       <c r="C106" t="n">
-        <v>750264.0</v>
+        <v>279298.0</v>
       </c>
       <c r="D106" t="n">
-        <v>21254.0</v>
+        <v>18260.0</v>
       </c>
       <c r="E106" t="n">
-        <v>9195.0</v>
+        <v>7420.0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>8866148.0</v>
+        <v>9386218.0</v>
       </c>
       <c r="B107" t="n">
-        <v>241212.0</v>
+        <v>199194.0</v>
       </c>
       <c r="C107" t="n">
-        <v>761082.0</v>
+        <v>283030.0</v>
       </c>
       <c r="D107" t="n">
-        <v>16017.0</v>
+        <v>16164.0</v>
       </c>
       <c r="E107" t="n">
-        <v>8424.0</v>
+        <v>6550.0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>8865492.0</v>
+        <v>9388369.0</v>
       </c>
       <c r="B108" t="n">
-        <v>231655.0</v>
+        <v>193504.0</v>
       </c>
       <c r="C108" t="n">
-        <v>771295.0</v>
+        <v>286569.0</v>
       </c>
       <c r="D108" t="n">
-        <v>16744.0</v>
+        <v>16669.0</v>
       </c>
       <c r="E108" t="n">
-        <v>6784.0</v>
+        <v>6361.0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>8863510.0</v>
+        <v>9389075.0</v>
       </c>
       <c r="B109" t="n">
-        <v>224971.0</v>
+        <v>190024.0</v>
       </c>
       <c r="C109" t="n">
-        <v>779961.0</v>
+        <v>289343.0</v>
       </c>
       <c r="D109" t="n">
-        <v>18739.0</v>
+        <v>17453.0</v>
       </c>
       <c r="E109" t="n">
-        <v>6757.0</v>
+        <v>6675.0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>8860424.0</v>
+        <v>9389488.0</v>
       </c>
       <c r="B110" t="n">
-        <v>220858.0</v>
+        <v>188423.0</v>
       </c>
       <c r="C110" t="n">
-        <v>787160.0</v>
+        <v>290531.0</v>
       </c>
       <c r="D110" t="n">
-        <v>20945.0</v>
+        <v>18480.0</v>
       </c>
       <c r="E110" t="n">
-        <v>8055.0</v>
+        <v>7243.0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>8864257.0</v>
+        <v>9393624.0</v>
       </c>
       <c r="B111" t="n">
-        <v>213091.0</v>
+        <v>183607.0</v>
       </c>
       <c r="C111" t="n">
-        <v>791094.0</v>
+        <v>291211.0</v>
       </c>
       <c r="D111" t="n">
-        <v>15941.0</v>
+        <v>13640.0</v>
       </c>
       <c r="E111" t="n">
-        <v>8323.0</v>
+        <v>7465.0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>8869611.0</v>
+        <v>9400883.0</v>
       </c>
       <c r="B112" t="n">
-        <v>206765.0</v>
+        <v>178183.0</v>
       </c>
       <c r="C112" t="n">
-        <v>792066.0</v>
+        <v>289376.0</v>
       </c>
       <c r="D112" t="n">
-        <v>15839.0</v>
+        <v>12833.0</v>
       </c>
       <c r="E112" t="n">
-        <v>7919.0</v>
+        <v>7857.0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>8867410.0</v>
+        <v>9399696.0</v>
       </c>
       <c r="B113" t="n">
-        <v>210419.0</v>
+        <v>181739.0</v>
       </c>
       <c r="C113" t="n">
-        <v>790613.0</v>
+        <v>287007.0</v>
       </c>
       <c r="D113" t="n">
-        <v>24095.0</v>
+        <v>20757.0</v>
       </c>
       <c r="E113" t="n">
-        <v>8306.0</v>
+        <v>7997.0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>8868863.0</v>
+        <v>9402172.0</v>
       </c>
       <c r="B114" t="n">
-        <v>211537.0</v>
+        <v>183541.0</v>
       </c>
       <c r="C114" t="n">
-        <v>788042.0</v>
+        <v>282729.0</v>
       </c>
       <c r="D114" t="n">
-        <v>20293.0</v>
+        <v>19177.0</v>
       </c>
       <c r="E114" t="n">
-        <v>8886.0</v>
+        <v>7485.0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>8870173.0</v>
+        <v>9402974.0</v>
       </c>
       <c r="B115" t="n">
-        <v>213151.0</v>
+        <v>187444.0</v>
       </c>
       <c r="C115" t="n">
-        <v>785118.0</v>
+        <v>278024.0</v>
       </c>
       <c r="D115" t="n">
-        <v>20256.0</v>
+        <v>19943.0</v>
       </c>
       <c r="E115" t="n">
-        <v>7901.0</v>
+        <v>7195.0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>8870493.0</v>
+        <v>9401993.0</v>
       </c>
       <c r="B116" t="n">
-        <v>216737.0</v>
+        <v>193167.0</v>
       </c>
       <c r="C116" t="n">
-        <v>781212.0</v>
+        <v>273282.0</v>
       </c>
       <c r="D116" t="n">
-        <v>21943.0</v>
+        <v>21150.0</v>
       </c>
       <c r="E116" t="n">
-        <v>7821.0</v>
+        <v>7915.0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>8869473.0</v>
+        <v>9400689.0</v>
       </c>
       <c r="B117" t="n">
-        <v>222299.0</v>
+        <v>200690.0</v>
       </c>
       <c r="C117" t="n">
-        <v>776670.0</v>
+        <v>267063.0</v>
       </c>
       <c r="D117" t="n">
-        <v>24235.0</v>
+        <v>22349.0</v>
       </c>
       <c r="E117" t="n">
-        <v>9226.0</v>
+        <v>8653.0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>8875468.0</v>
+        <v>9402680.0</v>
       </c>
       <c r="B118" t="n">
-        <v>223428.0</v>
+        <v>202525.0</v>
       </c>
       <c r="C118" t="n">
-        <v>769546.0</v>
+        <v>263237.0</v>
       </c>
       <c r="D118" t="n">
-        <v>19419.0</v>
+        <v>17433.0</v>
       </c>
       <c r="E118" t="n">
-        <v>9936.0</v>
+        <v>9005.0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>8882267.0</v>
+        <v>9409242.0</v>
       </c>
       <c r="B119" t="n">
-        <v>224687.0</v>
+        <v>201640.0</v>
       </c>
       <c r="C119" t="n">
-        <v>761488.0</v>
+        <v>257560.0</v>
       </c>
       <c r="D119" t="n">
-        <v>19359.0</v>
+        <v>15502.0</v>
       </c>
       <c r="E119" t="n">
-        <v>9760.0</v>
+        <v>9365.0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>8880492.0</v>
+        <v>9405875.0</v>
       </c>
       <c r="B120" t="n">
-        <v>235404.0</v>
+        <v>209800.0</v>
       </c>
       <c r="C120" t="n">
-        <v>752546.0</v>
+        <v>252767.0</v>
       </c>
       <c r="D120" t="n">
-        <v>28519.0</v>
+        <v>24743.0</v>
       </c>
       <c r="E120" t="n">
-        <v>10162.0</v>
+        <v>9443.0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>8882813.0</v>
+        <v>9406196.0</v>
       </c>
       <c r="B121" t="n">
-        <v>241698.0</v>
+        <v>214533.0</v>
       </c>
       <c r="C121" t="n">
-        <v>743931.0</v>
+        <v>247713.0</v>
       </c>
       <c r="D121" t="n">
-        <v>23772.0</v>
+        <v>22923.0</v>
       </c>
       <c r="E121" t="n">
-        <v>10232.0</v>
+        <v>8815.0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>8884697.0</v>
+        <v>9404774.0</v>
       </c>
       <c r="B122" t="n">
-        <v>247036.0</v>
+        <v>220703.0</v>
       </c>
       <c r="C122" t="n">
-        <v>736709.0</v>
+        <v>242965.0</v>
       </c>
       <c r="D122" t="n">
-        <v>23914.0</v>
+        <v>23781.0</v>
       </c>
       <c r="E122" t="n">
-        <v>9570.0</v>
+        <v>8868.0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>8884458.0</v>
+        <v>9400763.0</v>
       </c>
       <c r="B123" t="n">
-        <v>253317.0</v>
+        <v>228014.0</v>
       </c>
       <c r="C123" t="n">
-        <v>730667.0</v>
+        <v>239665.0</v>
       </c>
       <c r="D123" t="n">
-        <v>26155.0</v>
+        <v>24944.0</v>
       </c>
       <c r="E123" t="n">
-        <v>9295.0</v>
+        <v>9552.0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>8882525.0</v>
+        <v>9394018.0</v>
       </c>
       <c r="B124" t="n">
-        <v>260910.0</v>
+        <v>236971.0</v>
       </c>
       <c r="C124" t="n">
-        <v>725007.0</v>
+        <v>237453.0</v>
       </c>
       <c r="D124" t="n">
-        <v>28454.0</v>
+        <v>26826.0</v>
       </c>
       <c r="E124" t="n">
-        <v>11111.0</v>
+        <v>10458.0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>8888334.0</v>
+        <v>9391287.0</v>
       </c>
       <c r="B125" t="n">
-        <v>262188.0</v>
+        <v>240590.0</v>
       </c>
       <c r="C125" t="n">
-        <v>717920.0</v>
+        <v>236565.0</v>
       </c>
       <c r="D125" t="n">
-        <v>22490.0</v>
+        <v>21187.0</v>
       </c>
       <c r="E125" t="n">
-        <v>11739.0</v>
+        <v>10827.0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>8895028.0</v>
+        <v>9391093.0</v>
       </c>
       <c r="B126" t="n">
-        <v>264299.0</v>
+        <v>239068.0</v>
       </c>
       <c r="C126" t="n">
-        <v>709115.0</v>
+        <v>238281.0</v>
       </c>
       <c r="D126" t="n">
-        <v>22688.0</v>
+        <v>18451.0</v>
       </c>
       <c r="E126" t="n">
-        <v>11677.0</v>
+        <v>11187.0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>8891654.0</v>
+        <v>9378831.0</v>
       </c>
       <c r="B127" t="n">
-        <v>276705.0</v>
+        <v>248678.0</v>
       </c>
       <c r="C127" t="n">
-        <v>700083.0</v>
+        <v>240933.0</v>
       </c>
       <c r="D127" t="n">
-        <v>32994.0</v>
+        <v>29463.0</v>
       </c>
       <c r="E127" t="n">
-        <v>11796.0</v>
+        <v>11437.0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>8892948.0</v>
+        <v>9369262.0</v>
       </c>
       <c r="B128" t="n">
-        <v>283089.0</v>
+        <v>253790.0</v>
       </c>
       <c r="C128" t="n">
-        <v>692405.0</v>
+        <v>245390.0</v>
       </c>
       <c r="D128" t="n">
-        <v>27395.0</v>
+        <v>26944.0</v>
       </c>
       <c r="E128" t="n">
-        <v>11970.0</v>
+        <v>10736.0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>8893219.0</v>
+        <v>9356938.0</v>
       </c>
       <c r="B129" t="n">
-        <v>289237.0</v>
+        <v>260932.0</v>
       </c>
       <c r="C129" t="n">
-        <v>685986.0</v>
+        <v>250572.0</v>
       </c>
       <c r="D129" t="n">
-        <v>27762.0</v>
+        <v>28364.0</v>
       </c>
       <c r="E129" t="n">
-        <v>10945.0</v>
+        <v>10575.0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>8891120.0</v>
+        <v>9342744.0</v>
       </c>
       <c r="B130" t="n">
-        <v>295567.0</v>
+        <v>268598.0</v>
       </c>
       <c r="C130" t="n">
-        <v>681755.0</v>
+        <v>257100.0</v>
       </c>
       <c r="D130" t="n">
-        <v>29570.0</v>
+        <v>29621.0</v>
       </c>
       <c r="E130" t="n">
-        <v>11050.0</v>
+        <v>11163.0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>8887467.0</v>
+        <v>9325953.0</v>
       </c>
       <c r="B131" t="n">
-        <v>303190.0</v>
+        <v>278196.0</v>
       </c>
       <c r="C131" t="n">
-        <v>677785.0</v>
+        <v>264293.0</v>
       </c>
       <c r="D131" t="n">
-        <v>31919.0</v>
+        <v>31617.0</v>
       </c>
       <c r="E131" t="n">
-        <v>12809.0</v>
+        <v>12600.0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>8891586.0</v>
+        <v>9316611.0</v>
       </c>
       <c r="B132" t="n">
-        <v>304062.0</v>
+        <v>282027.0</v>
       </c>
       <c r="C132" t="n">
-        <v>672794.0</v>
+        <v>269804.0</v>
       </c>
       <c r="D132" t="n">
-        <v>25543.0</v>
+        <v>24940.0</v>
       </c>
       <c r="E132" t="n">
-        <v>13775.0</v>
+        <v>13011.0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>8896657.0</v>
+        <v>9311085.0</v>
       </c>
       <c r="B133" t="n">
-        <v>305315.0</v>
+        <v>279683.0</v>
       </c>
       <c r="C133" t="n">
-        <v>666470.0</v>
+        <v>277674.0</v>
       </c>
       <c r="D133" t="n">
-        <v>25906.0</v>
+        <v>21913.0</v>
       </c>
       <c r="E133" t="n">
-        <v>13381.0</v>
+        <v>13507.0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>8890751.0</v>
+        <v>9294328.0</v>
       </c>
       <c r="B134" t="n">
-        <v>317712.0</v>
+        <v>289522.0</v>
       </c>
       <c r="C134" t="n">
-        <v>659979.0</v>
+        <v>284592.0</v>
       </c>
       <c r="D134" t="n">
-        <v>36779.0</v>
+        <v>33340.0</v>
       </c>
       <c r="E134" t="n">
-        <v>13580.0</v>
+        <v>13141.0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>8889897.0</v>
+        <v>9281981.0</v>
       </c>
       <c r="B135" t="n">
-        <v>323279.0</v>
+        <v>293936.0</v>
       </c>
       <c r="C135" t="n">
-        <v>655266.0</v>
+        <v>292525.0</v>
       </c>
       <c r="D135" t="n">
-        <v>30319.0</v>
+        <v>30537.0</v>
       </c>
       <c r="E135" t="n">
-        <v>13674.0</v>
+        <v>12488.0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>8887282.0</v>
+        <v>9267724.0</v>
       </c>
       <c r="B136" t="n">
-        <v>328874.0</v>
+        <v>300394.0</v>
       </c>
       <c r="C136" t="n">
-        <v>652286.0</v>
+        <v>300324.0</v>
       </c>
       <c r="D136" t="n">
-        <v>31061.0</v>
+        <v>31868.0</v>
       </c>
       <c r="E136" t="n">
-        <v>12390.0</v>
+        <v>12386.0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>8880648.0</v>
+        <v>9252513.0</v>
       </c>
       <c r="B137" t="n">
-        <v>335467.0</v>
+        <v>306701.0</v>
       </c>
       <c r="C137" t="n">
-        <v>652327.0</v>
+        <v>309228.0</v>
       </c>
       <c r="D137" t="n">
-        <v>33534.0</v>
+        <v>32844.0</v>
       </c>
       <c r="E137" t="n">
-        <v>12533.0</v>
+        <v>12879.0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>8870542.0</v>
+        <v>9235079.0</v>
       </c>
       <c r="B138" t="n">
-        <v>343419.0</v>
+        <v>315625.0</v>
       </c>
       <c r="C138" t="n">
-        <v>654481.0</v>
+        <v>317738.0</v>
       </c>
       <c r="D138" t="n">
-        <v>36407.0</v>
+        <v>35303.0</v>
       </c>
       <c r="E138" t="n">
-        <v>14313.0</v>
+        <v>14075.0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>8867616.0</v>
+        <v>9225506.0</v>
       </c>
       <c r="B139" t="n">
-        <v>343351.0</v>
+        <v>317304.0</v>
       </c>
       <c r="C139" t="n">
-        <v>657475.0</v>
+        <v>325632.0</v>
       </c>
       <c r="D139" t="n">
-        <v>28349.0</v>
+        <v>27141.0</v>
       </c>
       <c r="E139" t="n">
-        <v>15314.0</v>
+        <v>14454.0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>8863859.0</v>
+        <v>9221580.0</v>
       </c>
       <c r="B140" t="n">
-        <v>343997.0</v>
+        <v>312134.0</v>
       </c>
       <c r="C140" t="n">
-        <v>660586.0</v>
+        <v>334728.0</v>
       </c>
       <c r="D140" t="n">
-        <v>28815.0</v>
+        <v>23899.0</v>
       </c>
       <c r="E140" t="n">
-        <v>14725.0</v>
+        <v>14620.0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>8844981.0</v>
+        <v>9205236.0</v>
       </c>
       <c r="B141" t="n">
-        <v>358980.0</v>
+        <v>320102.0</v>
       </c>
       <c r="C141" t="n">
-        <v>664481.0</v>
+        <v>343104.0</v>
       </c>
       <c r="D141" t="n">
-        <v>42586.0</v>
+        <v>36197.0</v>
       </c>
       <c r="E141" t="n">
-        <v>15411.0</v>
+        <v>14477.0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>8832048.0</v>
+        <v>9193905.0</v>
       </c>
       <c r="B142" t="n">
-        <v>366428.0</v>
+        <v>322653.0</v>
       </c>
       <c r="C142" t="n">
-        <v>669966.0</v>
+        <v>351884.0</v>
       </c>
       <c r="D142" t="n">
-        <v>35098.0</v>
+        <v>33163.0</v>
       </c>
       <c r="E142" t="n">
-        <v>15504.0</v>
+        <v>13711.0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>8817139.0</v>
+        <v>9181006.0</v>
       </c>
       <c r="B143" t="n">
-        <v>372953.0</v>
+        <v>327448.0</v>
       </c>
       <c r="C143" t="n">
-        <v>678350.0</v>
+        <v>359988.0</v>
       </c>
       <c r="D143" t="n">
-        <v>35350.0</v>
+        <v>34121.0</v>
       </c>
       <c r="E143" t="n">
-        <v>13995.0</v>
+        <v>13588.0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>8798570.0</v>
+        <v>9168082.0</v>
       </c>
       <c r="B144" t="n">
-        <v>379992.0</v>
+        <v>331474.0</v>
       </c>
       <c r="C144" t="n">
-        <v>689880.0</v>
+        <v>368886.0</v>
       </c>
       <c r="D144" t="n">
-        <v>37744.0</v>
+        <v>34879.0</v>
       </c>
       <c r="E144" t="n">
-        <v>13987.0</v>
+        <v>13908.0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>8776307.0</v>
+        <v>9153344.0</v>
       </c>
       <c r="B145" t="n">
-        <v>388918.0</v>
+        <v>338411.0</v>
       </c>
       <c r="C145" t="n">
-        <v>703217.0</v>
+        <v>376687.0</v>
       </c>
       <c r="D145" t="n">
-        <v>40905.0</v>
+        <v>36757.0</v>
       </c>
       <c r="E145" t="n">
-        <v>16339.0</v>
+        <v>15073.0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>8762566.0</v>
+        <v>9146009.0</v>
       </c>
       <c r="B146" t="n">
-        <v>388877.0</v>
+        <v>338447.0</v>
       </c>
       <c r="C146" t="n">
-        <v>716999.0</v>
+        <v>383986.0</v>
       </c>
       <c r="D146" t="n">
-        <v>32098.0</v>
+        <v>28444.0</v>
       </c>
       <c r="E146" t="n">
-        <v>17681.0</v>
+        <v>15785.0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>8748674.0</v>
+        <v>9145150.0</v>
       </c>
       <c r="B147" t="n">
-        <v>389519.0</v>
+        <v>330910.0</v>
       </c>
       <c r="C147" t="n">
-        <v>730249.0</v>
+        <v>392382.0</v>
       </c>
       <c r="D147" t="n">
-        <v>32565.0</v>
+        <v>25116.0</v>
       </c>
       <c r="E147" t="n">
-        <v>17078.0</v>
+        <v>15526.0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>8721639.0</v>
+        <v>9131555.0</v>
       </c>
       <c r="B148" t="n">
-        <v>403320.0</v>
+        <v>336707.0</v>
       </c>
       <c r="C148" t="n">
-        <v>743483.0</v>
+        <v>400180.0</v>
       </c>
       <c r="D148" t="n">
-        <v>45325.0</v>
+        <v>37096.0</v>
       </c>
       <c r="E148" t="n">
-        <v>17378.0</v>
+        <v>15285.0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>8711209.0</v>
+        <v>9130417.0</v>
       </c>
       <c r="B149" t="n">
-        <v>400251.0</v>
+        <v>330721.0</v>
       </c>
       <c r="C149" t="n">
-        <v>756982.0</v>
+        <v>407304.0</v>
       </c>
       <c r="D149" t="n">
-        <v>28530.0</v>
+        <v>27261.0</v>
       </c>
       <c r="E149" t="n">
-        <v>17493.0</v>
+        <v>14144.0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>8700112.0</v>
+        <v>9128398.0</v>
       </c>
       <c r="B150" t="n">
-        <v>396661.0</v>
+        <v>326130.0</v>
       </c>
       <c r="C150" t="n">
-        <v>771669.0</v>
+        <v>413914.0</v>
       </c>
       <c r="D150" t="n">
-        <v>28899.0</v>
+        <v>27429.0</v>
       </c>
       <c r="E150" t="n">
-        <v>15828.0</v>
+        <v>13665.0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>8687484.0</v>
+        <v>9127901.0</v>
       </c>
       <c r="B151" t="n">
-        <v>392373.0</v>
+        <v>319758.0</v>
       </c>
       <c r="C151" t="n">
-        <v>788585.0</v>
+        <v>420783.0</v>
       </c>
       <c r="D151" t="n">
-        <v>30106.0</v>
+        <v>27034.0</v>
       </c>
       <c r="E151" t="n">
-        <v>15663.0</v>
+        <v>13297.0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>8675218.0</v>
+        <v>9126713.0</v>
       </c>
       <c r="B152" t="n">
-        <v>387347.0</v>
+        <v>315097.0</v>
       </c>
       <c r="C152" t="n">
-        <v>805877.0</v>
+        <v>426632.0</v>
       </c>
       <c r="D152" t="n">
-        <v>30842.0</v>
+        <v>27567.0</v>
       </c>
       <c r="E152" t="n">
-        <v>17149.0</v>
+        <v>13463.0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>8675085.0</v>
+        <v>9133853.0</v>
       </c>
       <c r="B153" t="n">
-        <v>370826.0</v>
+        <v>303170.0</v>
       </c>
       <c r="C153" t="n">
-        <v>822531.0</v>
+        <v>431419.0</v>
       </c>
       <c r="D153" t="n">
-        <v>20007.0</v>
+        <v>18322.0</v>
       </c>
       <c r="E153" t="n">
-        <v>15834.0</v>
+        <v>12879.0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>8672838.0</v>
+        <v>9144731.0</v>
       </c>
       <c r="B154" t="n">
-        <v>358049.0</v>
+        <v>287197.0</v>
       </c>
       <c r="C154" t="n">
-        <v>837555.0</v>
+        <v>436514.0</v>
       </c>
       <c r="D154" t="n">
-        <v>23108.0</v>
+        <v>18191.0</v>
       </c>
       <c r="E154" t="n">
-        <v>13417.0</v>
+        <v>12007.0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>8677106.0</v>
+        <v>9157763.0</v>
       </c>
       <c r="B155" t="n">
-        <v>339908.0</v>
+        <v>270117.0</v>
       </c>
       <c r="C155" t="n">
-        <v>851428.0</v>
+        <v>440562.0</v>
       </c>
       <c r="D155" t="n">
-        <v>16944.0</v>
+        <v>15197.0</v>
       </c>
       <c r="E155" t="n">
-        <v>13149.0</v>
+        <v>10850.0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>8686227.0</v>
+        <v>9175742.0</v>
       </c>
       <c r="B156" t="n">
-        <v>316452.0</v>
+        <v>249170.0</v>
       </c>
       <c r="C156" t="n">
-        <v>865763.0</v>
+        <v>443530.0</v>
       </c>
       <c r="D156" t="n">
-        <v>11456.0</v>
+        <v>12633.0</v>
       </c>
       <c r="E156" t="n">
-        <v>12717.0</v>
+        <v>9516.0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>8699164.0</v>
+        <v>9194898.0</v>
       </c>
       <c r="B157" t="n">
-        <v>289175.0</v>
+        <v>228163.0</v>
       </c>
       <c r="C157" t="n">
-        <v>880103.0</v>
+        <v>445381.0</v>
       </c>
       <c r="D157" t="n">
-        <v>7651.0</v>
+        <v>10170.0</v>
       </c>
       <c r="E157" t="n">
-        <v>10567.0</v>
+        <v>7811.0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>8702984.0</v>
+        <v>9209907.0</v>
       </c>
       <c r="B158" t="n">
-        <v>271202.0</v>
+        <v>211518.0</v>
       </c>
       <c r="C158" t="n">
-        <v>894256.0</v>
+        <v>447017.0</v>
       </c>
       <c r="D158" t="n">
-        <v>17191.0</v>
+        <v>15844.0</v>
       </c>
       <c r="E158" t="n">
-        <v>8956.0</v>
+        <v>6645.0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>8712027.0</v>
+        <v>9226021.0</v>
       </c>
       <c r="B159" t="n">
-        <v>249298.0</v>
+        <v>196719.0</v>
       </c>
       <c r="C159" t="n">
-        <v>907117.0</v>
+        <v>445702.0</v>
       </c>
       <c r="D159" t="n">
-        <v>12571.0</v>
+        <v>13706.0</v>
       </c>
       <c r="E159" t="n">
-        <v>7909.0</v>
+        <v>6054.0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>8730322.0</v>
+        <v>9247174.0</v>
       </c>
       <c r="B160" t="n">
-        <v>221426.0</v>
+        <v>179095.0</v>
       </c>
       <c r="C160" t="n">
-        <v>916694.0</v>
+        <v>442173.0</v>
       </c>
       <c r="D160" t="n">
-        <v>4945.0</v>
+        <v>7255.0</v>
       </c>
       <c r="E160" t="n">
-        <v>5842.0</v>
+        <v>5778.0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>8744198.0</v>
+        <v>9271821.0</v>
       </c>
       <c r="B161" t="n">
-        <v>201370.0</v>
+        <v>160215.0</v>
       </c>
       <c r="C161" t="n">
-        <v>922874.0</v>
+        <v>436406.0</v>
       </c>
       <c r="D161" t="n">
-        <v>10420.0</v>
+        <v>8006.0</v>
       </c>
       <c r="E161" t="n">
-        <v>4899.0</v>
+        <v>5697.0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>8752691.0</v>
+        <v>9291614.0</v>
       </c>
       <c r="B162" t="n">
-        <v>189407.0</v>
+        <v>149537.0</v>
       </c>
       <c r="C162" t="n">
-        <v>926344.0</v>
+        <v>427291.0</v>
       </c>
       <c r="D162" t="n">
-        <v>16178.0</v>
+        <v>11506.0</v>
       </c>
       <c r="E162" t="n">
-        <v>6226.0</v>
+        <v>5425.0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>8765171.0</v>
+        <v>9314179.0</v>
       </c>
       <c r="B163" t="n">
-        <v>175415.0</v>
+        <v>139036.0</v>
       </c>
       <c r="C163" t="n">
-        <v>927856.0</v>
+        <v>415227.0</v>
       </c>
       <c r="D163" t="n">
-        <v>12173.0</v>
+        <v>10682.0</v>
       </c>
       <c r="E163" t="n">
-        <v>6102.0</v>
+        <v>5169.0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>8773147.0</v>
+        <v>9333367.0</v>
       </c>
       <c r="B164" t="n">
-        <v>167743.0</v>
+        <v>132213.0</v>
       </c>
       <c r="C164" t="n">
-        <v>927552.0</v>
+        <v>402862.0</v>
       </c>
       <c r="D164" t="n">
-        <v>16406.0</v>
+        <v>12832.0</v>
       </c>
       <c r="E164" t="n">
-        <v>4267.0</v>
+        <v>4654.0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>8782474.0</v>
+        <v>9353699.0</v>
       </c>
       <c r="B165" t="n">
-        <v>161002.0</v>
+        <v>127752.0</v>
       </c>
       <c r="C165" t="n">
-        <v>924966.0</v>
+        <v>386991.0</v>
       </c>
       <c r="D165" t="n">
-        <v>15425.0</v>
+        <v>13074.0</v>
       </c>
       <c r="E165" t="n">
-        <v>4131.0</v>
+        <v>4613.0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>8790876.0</v>
+        <v>9371715.0</v>
       </c>
       <c r="B166" t="n">
-        <v>158017.0</v>
+        <v>127453.0</v>
       </c>
       <c r="C166" t="n">
-        <v>919549.0</v>
+        <v>369274.0</v>
       </c>
       <c r="D166" t="n">
-        <v>17064.0</v>
+        <v>14212.0</v>
       </c>
       <c r="E166" t="n">
-        <v>6086.0</v>
+        <v>4902.0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>8804240.0</v>
+        <v>9391385.0</v>
       </c>
       <c r="B167" t="n">
-        <v>153768.0</v>
+        <v>124456.0</v>
       </c>
       <c r="C167" t="n">
-        <v>910434.0</v>
+        <v>352601.0</v>
       </c>
       <c r="D167" t="n">
-        <v>13577.0</v>
+        <v>10579.0</v>
       </c>
       <c r="E167" t="n">
-        <v>6513.0</v>
+        <v>5448.0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>8818750.0</v>
+        <v>9415553.0</v>
       </c>
       <c r="B168" t="n">
-        <v>152408.0</v>
+        <v>121892.0</v>
       </c>
       <c r="C168" t="n">
-        <v>897284.0</v>
+        <v>330997.0</v>
       </c>
       <c r="D168" t="n">
-        <v>13945.0</v>
+        <v>9996.0</v>
       </c>
       <c r="E168" t="n">
-        <v>6879.0</v>
+        <v>5800.0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>8824412.0</v>
+        <v>9430982.0</v>
       </c>
       <c r="B169" t="n">
-        <v>161704.0</v>
+        <v>126185.0</v>
       </c>
       <c r="C169" t="n">
-        <v>882326.0</v>
+        <v>311275.0</v>
       </c>
       <c r="D169" t="n">
-        <v>22755.0</v>
+        <v>16848.0</v>
       </c>
       <c r="E169" t="n">
-        <v>7647.0</v>
+        <v>5736.0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>8834410.0</v>
+        <v>9448807.0</v>
       </c>
       <c r="B170" t="n">
-        <v>168429.0</v>
+        <v>130615.0</v>
       </c>
       <c r="C170" t="n">
-        <v>865603.0</v>
+        <v>289020.0</v>
       </c>
       <c r="D170" t="n">
-        <v>18171.0</v>
+        <v>15755.0</v>
       </c>
       <c r="E170" t="n">
-        <v>7461.0</v>
+        <v>5611.0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>8843094.0</v>
+        <v>9463014.0</v>
       </c>
       <c r="B171" t="n">
-        <v>176321.0</v>
+        <v>135850.0</v>
       </c>
       <c r="C171" t="n">
-        <v>849027.0</v>
+        <v>269578.0</v>
       </c>
       <c r="D171" t="n">
-        <v>18919.0</v>
+        <v>16970.0</v>
       </c>
       <c r="E171" t="n">
-        <v>6696.0</v>
+        <v>5975.0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>8849287.0</v>
+        <v>9477255.0</v>
       </c>
       <c r="B172" t="n">
-        <v>186007.0</v>
+        <v>142729.0</v>
       </c>
       <c r="C172" t="n">
-        <v>833148.0</v>
+        <v>248458.0</v>
       </c>
       <c r="D172" t="n">
-        <v>21457.0</v>
+        <v>18248.0</v>
       </c>
       <c r="E172" t="n">
-        <v>6916.0</v>
+        <v>6449.0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>8854316.0</v>
+        <v>9485713.0</v>
       </c>
       <c r="B173" t="n">
-        <v>196658.0</v>
+        <v>151846.0</v>
       </c>
       <c r="C173" t="n">
-        <v>817468.0</v>
+        <v>230883.0</v>
       </c>
       <c r="D173" t="n">
-        <v>23796.0</v>
+        <v>20047.0</v>
       </c>
       <c r="E173" t="n">
-        <v>8682.0</v>
+        <v>7288.0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>8865846.0</v>
+        <v>9494416.0</v>
       </c>
       <c r="B174" t="n">
-        <v>201771.0</v>
+        <v>156555.0</v>
       </c>
       <c r="C174" t="n">
-        <v>800825.0</v>
+        <v>217471.0</v>
       </c>
       <c r="D174" t="n">
-        <v>19175.0</v>
+        <v>16176.0</v>
       </c>
       <c r="E174" t="n">
-        <v>9349.0</v>
+        <v>7958.0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>8878618.0</v>
+        <v>9506860.0</v>
       </c>
       <c r="B175" t="n">
-        <v>206418.0</v>
+        <v>158438.0</v>
       </c>
       <c r="C175" t="n">
-        <v>783406.0</v>
+        <v>203144.0</v>
       </c>
       <c r="D175" t="n">
-        <v>19207.0</v>
+        <v>14442.0</v>
       </c>
       <c r="E175" t="n">
-        <v>9160.0</v>
+        <v>8112.0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>8882391.0</v>
+        <v>9506100.0</v>
       </c>
       <c r="B176" t="n">
-        <v>219787.0</v>
+        <v>168725.0</v>
       </c>
       <c r="C176" t="n">
-        <v>766264.0</v>
+        <v>193617.0</v>
       </c>
       <c r="D176" t="n">
-        <v>28366.0</v>
+        <v>22944.0</v>
       </c>
       <c r="E176" t="n">
-        <v>9698.0</v>
+        <v>7942.0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>8890518.0</v>
+        <v>9505448.0</v>
       </c>
       <c r="B177" t="n">
-        <v>228330.0</v>
+        <v>176229.0</v>
       </c>
       <c r="C177" t="n">
-        <v>749594.0</v>
+        <v>186765.0</v>
       </c>
       <c r="D177" t="n">
-        <v>23796.0</v>
+        <v>21835.0</v>
       </c>
       <c r="E177" t="n">
-        <v>10175.0</v>
+        <v>8108.0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>8898000.0</v>
+        <v>9501640.0</v>
       </c>
       <c r="B178" t="n">
-        <v>236199.0</v>
+        <v>186028.0</v>
       </c>
       <c r="C178" t="n">
-        <v>734243.0</v>
+        <v>180774.0</v>
       </c>
       <c r="D178" t="n">
-        <v>24042.0</v>
+        <v>23463.0</v>
       </c>
       <c r="E178" t="n">
-        <v>9342.0</v>
+        <v>8545.0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>8903593.0</v>
+        <v>9493873.0</v>
       </c>
       <c r="B179" t="n">
-        <v>244541.0</v>
+        <v>195181.0</v>
       </c>
       <c r="C179" t="n">
-        <v>720308.0</v>
+        <v>179388.0</v>
       </c>
       <c r="D179" t="n">
-        <v>26006.0</v>
+        <v>25302.0</v>
       </c>
       <c r="E179" t="n">
-        <v>9324.0</v>
+        <v>8897.0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>8907790.0</v>
+        <v>9480482.0</v>
       </c>
       <c r="B180" t="n">
-        <v>254206.0</v>
+        <v>207795.0</v>
       </c>
       <c r="C180" t="n">
-        <v>706446.0</v>
+        <v>180165.0</v>
       </c>
       <c r="D180" t="n">
-        <v>28292.0</v>
+        <v>27902.0</v>
       </c>
       <c r="E180" t="n">
-        <v>11034.0</v>
+        <v>10058.0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>8919532.0</v>
+        <v>9471374.0</v>
       </c>
       <c r="B181" t="n">
-        <v>257515.0</v>
+        <v>215053.0</v>
       </c>
       <c r="C181" t="n">
-        <v>691395.0</v>
+        <v>182015.0</v>
       </c>
       <c r="D181" t="n">
-        <v>22652.0</v>
+        <v>22684.0</v>
       </c>
       <c r="E181" t="n">
-        <v>11897.0</v>
+        <v>11150.0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>8932938.0</v>
+        <v>9463998.0</v>
       </c>
       <c r="B182" t="n">
-        <v>260509.0</v>
+        <v>216855.0</v>
       </c>
       <c r="C182" t="n">
-        <v>674995.0</v>
+        <v>187589.0</v>
       </c>
       <c r="D182" t="n">
-        <v>22462.0</v>
+        <v>19936.0</v>
       </c>
       <c r="E182" t="n">
-        <v>11407.0</v>
+        <v>11397.0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>8936397.0</v>
+        <v>9445288.0</v>
       </c>
       <c r="B183" t="n">
-        <v>274007.0</v>
+        <v>230159.0</v>
       </c>
       <c r="C183" t="n">
-        <v>658038.0</v>
+        <v>192995.0</v>
       </c>
       <c r="D183" t="n">
-        <v>33069.0</v>
+        <v>31265.0</v>
       </c>
       <c r="E183" t="n">
-        <v>12003.0</v>
+        <v>11333.0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>8945102.0</v>
+        <v>9427555.0</v>
       </c>
       <c r="B184" t="n">
-        <v>281141.0</v>
+        <v>239290.0</v>
       </c>
       <c r="C184" t="n">
-        <v>642199.0</v>
+        <v>201597.0</v>
       </c>
       <c r="D184" t="n">
-        <v>27180.0</v>
+        <v>29058.0</v>
       </c>
       <c r="E184" t="n">
-        <v>12142.0</v>
+        <v>11234.0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>8952502.0</v>
+        <v>9408161.0</v>
       </c>
       <c r="B185" t="n">
-        <v>287473.0</v>
+        <v>250622.0</v>
       </c>
       <c r="C185" t="n">
-        <v>628467.0</v>
+        <v>209659.0</v>
       </c>
       <c r="D185" t="n">
-        <v>27685.0</v>
+        <v>31129.0</v>
       </c>
       <c r="E185" t="n">
-        <v>11038.0</v>
+        <v>11420.0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>8957187.0</v>
+        <v>9386255.0</v>
       </c>
       <c r="B186" t="n">
-        <v>294660.0</v>
+        <v>261230.0</v>
       </c>
       <c r="C186" t="n">
-        <v>616595.0</v>
+        <v>220957.0</v>
       </c>
       <c r="D186" t="n">
-        <v>30227.0</v>
+        <v>33275.0</v>
       </c>
       <c r="E186" t="n">
-        <v>11055.0</v>
+        <v>12167.0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>8959486.0</v>
+        <v>9361023.0</v>
       </c>
       <c r="B187" t="n">
-        <v>302971.0</v>
+        <v>275736.0</v>
       </c>
       <c r="C187" t="n">
-        <v>605985.0</v>
+        <v>231683.0</v>
       </c>
       <c r="D187" t="n">
-        <v>32629.0</v>
+        <v>36162.0</v>
       </c>
       <c r="E187" t="n">
-        <v>13091.0</v>
+        <v>13558.0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>8968859.0</v>
+        <v>9343238.0</v>
       </c>
       <c r="B188" t="n">
-        <v>304200.0</v>
+        <v>283462.0</v>
       </c>
       <c r="C188" t="n">
-        <v>595383.0</v>
+        <v>241742.0</v>
       </c>
       <c r="D188" t="n">
-        <v>25791.0</v>
+        <v>29252.0</v>
       </c>
       <c r="E188" t="n">
-        <v>13728.0</v>
+        <v>14794.0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>8977211.0</v>
+        <v>9330508.0</v>
       </c>
       <c r="B189" t="n">
-        <v>305954.0</v>
+        <v>283046.0</v>
       </c>
       <c r="C189" t="n">
-        <v>585277.0</v>
+        <v>254888.0</v>
       </c>
       <c r="D189" t="n">
-        <v>26123.0</v>
+        <v>25289.0</v>
       </c>
       <c r="E189" t="n">
-        <v>13186.0</v>
+        <v>15041.0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>8971339.0</v>
+        <v>9304694.0</v>
       </c>
       <c r="B190" t="n">
-        <v>320403.0</v>
+        <v>296111.0</v>
       </c>
       <c r="C190" t="n">
-        <v>576700.0</v>
+        <v>267637.0</v>
       </c>
       <c r="D190" t="n">
-        <v>38689.0</v>
+        <v>38471.0</v>
       </c>
       <c r="E190" t="n">
-        <v>13803.0</v>
+        <v>14512.0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>8969337.0</v>
+        <v>9283594.0</v>
       </c>
       <c r="B191" t="n">
-        <v>328596.0</v>
+        <v>304228.0</v>
       </c>
       <c r="C191" t="n">
-        <v>570509.0</v>
+        <v>280620.0</v>
       </c>
       <c r="D191" t="n">
-        <v>32478.0</v>
+        <v>35431.0</v>
       </c>
       <c r="E191" t="n">
-        <v>14134.0</v>
+        <v>13850.0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>8964763.0</v>
+        <v>9260119.0</v>
       </c>
       <c r="B192" t="n">
-        <v>335836.0</v>
+        <v>314525.0</v>
       </c>
       <c r="C192" t="n">
-        <v>567843.0</v>
+        <v>293798.0</v>
       </c>
       <c r="D192" t="n">
-        <v>32715.0</v>
+        <v>37139.0</v>
       </c>
       <c r="E192" t="n">
-        <v>12869.0</v>
+        <v>14445.0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>8954705.0</v>
+        <v>9237275.0</v>
       </c>
       <c r="B193" t="n">
-        <v>344814.0</v>
+        <v>323071.0</v>
       </c>
       <c r="C193" t="n">
-        <v>568923.0</v>
+        <v>308096.0</v>
       </c>
       <c r="D193" t="n">
-        <v>36223.0</v>
+        <v>38993.0</v>
       </c>
       <c r="E193" t="n">
-        <v>12832.0</v>
+        <v>14956.0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>8939530.0</v>
+        <v>9210768.0</v>
       </c>
       <c r="B194" t="n">
-        <v>355733.0</v>
+        <v>335812.0</v>
       </c>
       <c r="C194" t="n">
-        <v>573179.0</v>
+        <v>321862.0</v>
       </c>
       <c r="D194" t="n">
-        <v>39253.0</v>
+        <v>41795.0</v>
       </c>
       <c r="E194" t="n">
-        <v>15013.0</v>
+        <v>16166.0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>8930645.0</v>
+        <v>9193482.0</v>
       </c>
       <c r="B195" t="n">
-        <v>358188.0</v>
+        <v>340391.0</v>
       </c>
       <c r="C195" t="n">
-        <v>579609.0</v>
+        <v>334569.0</v>
       </c>
       <c r="D195" t="n">
-        <v>31051.0</v>
+        <v>32712.0</v>
       </c>
       <c r="E195" t="n">
-        <v>16164.0</v>
+        <v>17720.0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>8918935.0</v>
+        <v>9183016.0</v>
       </c>
       <c r="B196" t="n">
-        <v>361532.0</v>
+        <v>335819.0</v>
       </c>
       <c r="C196" t="n">
-        <v>587975.0</v>
+        <v>349607.0</v>
       </c>
       <c r="D196" t="n">
-        <v>31759.0</v>
+        <v>28600.0</v>
       </c>
       <c r="E196" t="n">
-        <v>15718.0</v>
+        <v>17478.0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>8890352.0</v>
+        <v>9158949.0</v>
       </c>
       <c r="B197" t="n">
-        <v>379714.0</v>
+        <v>345913.0</v>
       </c>
       <c r="C197" t="n">
-        <v>598376.0</v>
+        <v>363580.0</v>
       </c>
       <c r="D197" t="n">
-        <v>46409.0</v>
+        <v>42028.0</v>
       </c>
       <c r="E197" t="n">
-        <v>16610.0</v>
+        <v>16496.0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>8867416.0</v>
+        <v>9141066.0</v>
       </c>
       <c r="B198" t="n">
-        <v>389831.0</v>
+        <v>349509.0</v>
       </c>
       <c r="C198" t="n">
-        <v>611195.0</v>
+        <v>377867.0</v>
       </c>
       <c r="D198" t="n">
-        <v>38241.0</v>
+        <v>37810.0</v>
       </c>
       <c r="E198" t="n">
-        <v>16890.0</v>
+        <v>15763.0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>8842045.0</v>
+        <v>9121275.0</v>
       </c>
       <c r="B199" t="n">
-        <v>399059.0</v>
+        <v>356020.0</v>
       </c>
       <c r="C199" t="n">
-        <v>627338.0</v>
+        <v>391147.0</v>
       </c>
       <c r="D199" t="n">
-        <v>38830.0</v>
+        <v>39588.0</v>
       </c>
       <c r="E199" t="n">
-        <v>15078.0</v>
+        <v>15728.0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>8811563.0</v>
+        <v>9103662.0</v>
       </c>
       <c r="B200" t="n">
-        <v>409372.0</v>
+        <v>358787.0</v>
       </c>
       <c r="C200" t="n">
-        <v>647507.0</v>
+        <v>405993.0</v>
       </c>
       <c r="D200" t="n">
-        <v>41928.0</v>
+        <v>40280.0</v>
       </c>
       <c r="E200" t="n">
-        <v>15353.0</v>
+        <v>16094.0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>8777955.0</v>
+        <v>9082750.0</v>
       </c>
       <c r="B201" t="n">
-        <v>420710.0</v>
+        <v>367023.0</v>
       </c>
       <c r="C201" t="n">
-        <v>669777.0</v>
+        <v>418669.0</v>
       </c>
       <c r="D201" t="n">
-        <v>44635.0</v>
+        <v>42568.0</v>
       </c>
       <c r="E201" t="n">
-        <v>17940.0</v>
+        <v>17067.0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>8755276.0</v>
+        <v>9071997.0</v>
       </c>
       <c r="B202" t="n">
-        <v>421301.0</v>
+        <v>366029.0</v>
       </c>
       <c r="C202" t="n">
-        <v>691865.0</v>
+        <v>430416.0</v>
       </c>
       <c r="D202" t="n">
-        <v>34450.0</v>
+        <v>32279.0</v>
       </c>
       <c r="E202" t="n">
-        <v>18975.0</v>
+        <v>18289.0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>8732945.0</v>
+        <v>9069111.0</v>
       </c>
       <c r="B203" t="n">
-        <v>422976.0</v>
+        <v>355844.0</v>
       </c>
       <c r="C203" t="n">
-        <v>712521.0</v>
+        <v>443487.0</v>
       </c>
       <c r="D203" t="n">
-        <v>35476.0</v>
+        <v>28591.0</v>
       </c>
       <c r="E203" t="n">
-        <v>18482.0</v>
+        <v>18182.0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>8697469.0</v>
+        <v>9053947.0</v>
       </c>
       <c r="B204" t="n">
-        <v>439142.0</v>
+        <v>359801.0</v>
       </c>
       <c r="C204" t="n">
-        <v>731831.0</v>
+        <v>454694.0</v>
       </c>
       <c r="D204" t="n">
-        <v>49538.0</v>
+        <v>40570.0</v>
       </c>
       <c r="E204" t="n">
-        <v>19435.0</v>
+        <v>16434.0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>8671562.0</v>
+        <v>9044447.0</v>
       </c>
       <c r="B205" t="n">
-        <v>445918.0</v>
+        <v>359201.0</v>
       </c>
       <c r="C205" t="n">
-        <v>750962.0</v>
+        <v>464794.0</v>
       </c>
       <c r="D205" t="n">
-        <v>40467.0</v>
+        <v>36814.0</v>
       </c>
       <c r="E205" t="n">
-        <v>19087.0</v>
+        <v>15867.0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>8646410.0</v>
+        <v>9033732.0</v>
       </c>
       <c r="B206" t="n">
-        <v>451076.0</v>
+        <v>361135.0</v>
       </c>
       <c r="C206" t="n">
-        <v>770956.0</v>
+        <v>473575.0</v>
       </c>
       <c r="D206" t="n">
-        <v>40149.0</v>
+        <v>37557.0</v>
       </c>
       <c r="E206" t="n">
-        <v>17197.0</v>
+        <v>15572.0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>8619124.0</v>
+        <v>9026320.0</v>
       </c>
       <c r="B207" t="n">
-        <v>456299.0</v>
+        <v>359023.0</v>
       </c>
       <c r="C207" t="n">
-        <v>793019.0</v>
+        <v>483099.0</v>
       </c>
       <c r="D207" t="n">
-        <v>42539.0</v>
+        <v>37859.0</v>
       </c>
       <c r="E207" t="n">
-        <v>16696.0</v>
+        <v>15398.0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>8603012.0</v>
+        <v>9029887.0</v>
       </c>
       <c r="B208" t="n">
-        <v>449103.0</v>
+        <v>348857.0</v>
       </c>
       <c r="C208" t="n">
-        <v>816327.0</v>
+        <v>489698.0</v>
       </c>
       <c r="D208" t="n">
-        <v>32285.0</v>
+        <v>25487.0</v>
       </c>
       <c r="E208" t="n">
-        <v>19508.0</v>
+        <v>16359.0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>8587272.0</v>
+        <v>9029439.0</v>
       </c>
       <c r="B209" t="n">
-        <v>442516.0</v>
+        <v>343375.0</v>
       </c>
       <c r="C209" t="n">
-        <v>838654.0</v>
+        <v>495628.0</v>
       </c>
       <c r="D209" t="n">
-        <v>33404.0</v>
+        <v>28581.0</v>
       </c>
       <c r="E209" t="n">
-        <v>20074.0</v>
+        <v>16106.0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>8576785.0</v>
+        <v>9040898.0</v>
       </c>
       <c r="B210" t="n">
-        <v>432633.0</v>
+        <v>326264.0</v>
       </c>
       <c r="C210" t="n">
-        <v>859024.0</v>
+        <v>501280.0</v>
       </c>
       <c r="D210" t="n">
-        <v>29114.0</v>
+        <v>21713.0</v>
       </c>
       <c r="E210" t="n">
-        <v>19165.0</v>
+        <v>14992.0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>8552682.0</v>
+        <v>9040562.0</v>
       </c>
       <c r="B211" t="n">
-        <v>437600.0</v>
+        <v>321854.0</v>
       </c>
       <c r="C211" t="n">
-        <v>878160.0</v>
+        <v>506026.0</v>
       </c>
       <c r="D211" t="n">
-        <v>43446.0</v>
+        <v>32270.0</v>
       </c>
       <c r="E211" t="n">
-        <v>18099.0</v>
+        <v>13747.0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>8539548.0</v>
+        <v>9046468.0</v>
       </c>
       <c r="B212" t="n">
-        <v>431801.0</v>
+        <v>313207.0</v>
       </c>
       <c r="C212" t="n">
-        <v>897093.0</v>
+        <v>508767.0</v>
       </c>
       <c r="D212" t="n">
-        <v>32602.0</v>
+        <v>28308.0</v>
       </c>
       <c r="E212" t="n">
-        <v>16068.0</v>
+        <v>12392.0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>8525962.0</v>
+        <v>9051049.0</v>
       </c>
       <c r="B213" t="n">
-        <v>425437.0</v>
+        <v>307020.0</v>
       </c>
       <c r="C213" t="n">
-        <v>917043.0</v>
+        <v>510373.0</v>
       </c>
       <c r="D213" t="n">
-        <v>33157.0</v>
+        <v>28496.0</v>
       </c>
       <c r="E213" t="n">
-        <v>14423.0</v>
+        <v>11788.0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>8507746.0</v>
+        <v>9059138.0</v>
       </c>
       <c r="B214" t="n">
-        <v>422923.0</v>
+        <v>300952.0</v>
       </c>
       <c r="C214" t="n">
-        <v>937773.0</v>
+        <v>508352.0</v>
       </c>
       <c r="D214" t="n">
-        <v>38262.0</v>
+        <v>29424.0</v>
       </c>
       <c r="E214" t="n">
-        <v>14856.0</v>
+        <v>12141.0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>8489015.0</v>
+        <v>9063142.0</v>
       </c>
       <c r="B215" t="n">
-        <v>421021.0</v>
+        <v>298138.0</v>
       </c>
       <c r="C215" t="n">
-        <v>958406.0</v>
+        <v>507162.0</v>
       </c>
       <c r="D215" t="n">
-        <v>40084.0</v>
+        <v>30328.0</v>
       </c>
       <c r="E215" t="n">
-        <v>16867.0</v>
+        <v>12950.0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>8481678.0</v>
+        <v>9073043.0</v>
       </c>
       <c r="B216" t="n">
-        <v>410529.0</v>
+        <v>292432.0</v>
       </c>
       <c r="C216" t="n">
-        <v>976235.0</v>
+        <v>502967.0</v>
       </c>
       <c r="D216" t="n">
-        <v>30377.0</v>
+        <v>23372.0</v>
       </c>
       <c r="E216" t="n">
-        <v>17151.0</v>
+        <v>13520.0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>8474895.0</v>
+        <v>9091737.0</v>
       </c>
       <c r="B217" t="n">
-        <v>402723.0</v>
+        <v>277968.0</v>
       </c>
       <c r="C217" t="n">
-        <v>990824.0</v>
+        <v>498737.0</v>
       </c>
       <c r="D217" t="n">
-        <v>31101.0</v>
+        <v>20082.0</v>
       </c>
       <c r="E217" t="n">
-        <v>16282.0</v>
+        <v>13338.0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>8457635.0</v>
+        <v>9098448.0</v>
       </c>
       <c r="B218" t="n">
-        <v>407731.0</v>
+        <v>279001.0</v>
       </c>
       <c r="C218" t="n">
-        <v>1003076.0</v>
+        <v>490993.0</v>
       </c>
       <c r="D218" t="n">
-        <v>41822.0</v>
+        <v>29902.0</v>
       </c>
       <c r="E218" t="n">
-        <v>16826.0</v>
+        <v>12279.0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>8448343.0</v>
+        <v>9108665.0</v>
       </c>
       <c r="B219" t="n">
-        <v>405424.0</v>
+        <v>275372.0</v>
       </c>
       <c r="C219" t="n">
-        <v>1014675.0</v>
+        <v>484405.0</v>
       </c>
       <c r="D219" t="n">
-        <v>33661.0</v>
+        <v>27197.0</v>
       </c>
       <c r="E219" t="n">
-        <v>16969.0</v>
+        <v>11655.0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>8439255.0</v>
+        <v>9117049.0</v>
       </c>
       <c r="B220" t="n">
-        <v>401916.0</v>
+        <v>273498.0</v>
       </c>
       <c r="C220" t="n">
-        <v>1027271.0</v>
+        <v>477895.0</v>
       </c>
       <c r="D220" t="n">
-        <v>33328.0</v>
+        <v>27239.0</v>
       </c>
       <c r="E220" t="n">
-        <v>15188.0</v>
+        <v>11519.0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>8439782.0</v>
+        <v>9139742.0</v>
       </c>
       <c r="B221" t="n">
-        <v>388541.0</v>
+        <v>264127.0</v>
       </c>
       <c r="C221" t="n">
-        <v>1040119.0</v>
+        <v>464573.0</v>
       </c>
       <c r="D221" t="n">
-        <v>23758.0</v>
+        <v>17278.0</v>
       </c>
       <c r="E221" t="n">
-        <v>14516.0</v>
+        <v>11230.0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>8426573.0</v>
+        <v>9147468.0</v>
       </c>
       <c r="B222" t="n">
-        <v>390102.0</v>
+        <v>264188.0</v>
       </c>
       <c r="C222" t="n">
-        <v>1051767.0</v>
+        <v>456786.0</v>
       </c>
       <c r="D222" t="n">
-        <v>38684.0</v>
+        <v>27927.0</v>
       </c>
       <c r="E222" t="n">
-        <v>16518.0</v>
+        <v>11283.0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>8429888.0</v>
+        <v>9162706.0</v>
       </c>
       <c r="B223" t="n">
-        <v>378093.0</v>
+        <v>258742.0</v>
       </c>
       <c r="C223" t="n">
-        <v>1060461.0</v>
+        <v>446994.0</v>
       </c>
       <c r="D223" t="n">
-        <v>23930.0</v>
+        <v>18825.0</v>
       </c>
       <c r="E223" t="n">
-        <v>16760.0</v>
+        <v>11054.0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>8435537.0</v>
+        <v>9185473.0</v>
       </c>
       <c r="B224" t="n">
-        <v>365381.0</v>
+        <v>245515.0</v>
       </c>
       <c r="C224" t="n">
-        <v>1067524.0</v>
+        <v>437454.0</v>
       </c>
       <c r="D224" t="n">
-        <v>22685.0</v>
+        <v>16057.0</v>
       </c>
       <c r="E224" t="n">
-        <v>14669.0</v>
+        <v>11005.0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>8429177.0</v>
+        <v>9197798.0</v>
       </c>
       <c r="B225" t="n">
-        <v>366413.0</v>
+        <v>243099.0</v>
       </c>
       <c r="C225" t="n">
-        <v>1072852.0</v>
+        <v>427545.0</v>
       </c>
       <c r="D225" t="n">
-        <v>34956.0</v>
+        <v>24355.0</v>
       </c>
       <c r="E225" t="n">
-        <v>13318.0</v>
+        <v>9961.0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>8429194.0</v>
+        <v>9212907.0</v>
       </c>
       <c r="B226" t="n">
-        <v>361168.0</v>
+        <v>238538.0</v>
       </c>
       <c r="C226" t="n">
-        <v>1078080.0</v>
+        <v>416997.0</v>
       </c>
       <c r="D226" t="n">
-        <v>28398.0</v>
+        <v>21846.0</v>
       </c>
       <c r="E226" t="n">
-        <v>14064.0</v>
+        <v>9448.0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>8428528.0</v>
+        <v>9225196.0</v>
       </c>
       <c r="B227" t="n">
-        <v>355234.0</v>
+        <v>237023.0</v>
       </c>
       <c r="C227" t="n">
-        <v>1084680.0</v>
+        <v>406223.0</v>
       </c>
       <c r="D227" t="n">
-        <v>28893.0</v>
+        <v>22394.0</v>
       </c>
       <c r="E227" t="n">
-        <v>12781.0</v>
+        <v>9249.0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>8426388.0</v>
+        <v>9238622.0</v>
       </c>
       <c r="B228" t="n">
-        <v>350122.0</v>
+        <v>232698.0</v>
       </c>
       <c r="C228" t="n">
-        <v>1091932.0</v>
+        <v>397122.0</v>
       </c>
       <c r="D228" t="n">
-        <v>30264.0</v>
+        <v>22066.0</v>
       </c>
       <c r="E228" t="n">
-        <v>11617.0</v>
+        <v>9043.0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>8424217.0</v>
+        <v>9248504.0</v>
       </c>
       <c r="B229" t="n">
-        <v>346544.0</v>
+        <v>232796.0</v>
       </c>
       <c r="C229" t="n">
-        <v>1097681.0</v>
+        <v>387142.0</v>
       </c>
       <c r="D229" t="n">
-        <v>31773.0</v>
+        <v>23260.0</v>
       </c>
       <c r="E229" t="n">
-        <v>13316.0</v>
+        <v>9818.0</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>8431385.0</v>
+        <v>9259300.0</v>
       </c>
       <c r="B230" t="n">
-        <v>336966.0</v>
+        <v>229431.0</v>
       </c>
       <c r="C230" t="n">
-        <v>1100091.0</v>
+        <v>379711.0</v>
       </c>
       <c r="D230" t="n">
-        <v>24447.0</v>
+        <v>18282.0</v>
       </c>
       <c r="E230" t="n">
-        <v>14251.0</v>
+        <v>10365.0</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>8440210.0</v>
+        <v>9278113.0</v>
       </c>
       <c r="B231" t="n">
-        <v>328884.0</v>
+        <v>221605.0</v>
       </c>
       <c r="C231" t="n">
-        <v>1099348.0</v>
+        <v>368724.0</v>
       </c>
       <c r="D231" t="n">
-        <v>24472.0</v>
+        <v>15733.0</v>
       </c>
       <c r="E231" t="n">
-        <v>13511.0</v>
+        <v>10149.0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>8440582.0</v>
+        <v>9282895.0</v>
       </c>
       <c r="B232" t="n">
-        <v>331149.0</v>
+        <v>222537.0</v>
       </c>
       <c r="C232" t="n">
-        <v>1096711.0</v>
+        <v>363010.0</v>
       </c>
       <c r="D232" t="n">
-        <v>33487.0</v>
+        <v>24087.0</v>
       </c>
       <c r="E232" t="n">
-        <v>13814.0</v>
+        <v>9668.0</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>8447102.0</v>
+        <v>9291796.0</v>
       </c>
       <c r="B233" t="n">
-        <v>328729.0</v>
+        <v>221056.0</v>
       </c>
       <c r="C233" t="n">
-        <v>1092611.0</v>
+        <v>355590.0</v>
       </c>
       <c r="D233" t="n">
-        <v>27281.0</v>
+        <v>21925.0</v>
       </c>
       <c r="E233" t="n">
-        <v>13535.0</v>
+        <v>9271.0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>8453753.0</v>
+        <v>9299521.0</v>
       </c>
       <c r="B234" t="n">
-        <v>325709.0</v>
+        <v>223966.0</v>
       </c>
       <c r="C234" t="n">
-        <v>1088980.0</v>
+        <v>344955.0</v>
       </c>
       <c r="D234" t="n">
-        <v>26721.0</v>
+        <v>21388.0</v>
       </c>
       <c r="E234" t="n">
-        <v>12020.0</v>
+        <v>8979.0</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>8465155.0</v>
+        <v>9308730.0</v>
       </c>
       <c r="B235" t="n">
-        <v>317951.0</v>
+        <v>218295.0</v>
       </c>
       <c r="C235" t="n">
-        <v>1085336.0</v>
+        <v>341417.0</v>
       </c>
       <c r="D235" t="n">
-        <v>22289.0</v>
+        <v>17440.0</v>
       </c>
       <c r="E235" t="n">
-        <v>11501.0</v>
+        <v>8790.0</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>8477044.0</v>
+        <v>9318569.0</v>
       </c>
       <c r="B236" t="n">
-        <v>310806.0</v>
+        <v>216544.0</v>
       </c>
       <c r="C236" t="n">
-        <v>1080592.0</v>
+        <v>333329.0</v>
       </c>
       <c r="D236" t="n">
-        <v>23102.0</v>
+        <v>18027.0</v>
       </c>
       <c r="E236" t="n">
-        <v>13052.0</v>
+        <v>9253.0</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>8497497.0</v>
+        <v>9329555.0</v>
       </c>
       <c r="B237" t="n">
-        <v>297729.0</v>
+        <v>210874.0</v>
       </c>
       <c r="C237" t="n">
-        <v>1073216.0</v>
+        <v>328013.0</v>
       </c>
       <c r="D237" t="n">
-        <v>16863.0</v>
+        <v>13285.0</v>
       </c>
       <c r="E237" t="n">
-        <v>13611.0</v>
+        <v>9293.0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>8517526.0</v>
+        <v>9345392.0</v>
       </c>
       <c r="B238" t="n">
-        <v>288015.0</v>
+        <v>202173.0</v>
       </c>
       <c r="C238" t="n">
-        <v>1062901.0</v>
+        <v>320877.0</v>
       </c>
       <c r="D238" t="n">
-        <v>19452.0</v>
+        <v>13447.0</v>
       </c>
       <c r="E238" t="n">
-        <v>12388.0</v>
+        <v>8999.0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>8537231.0</v>
+        <v>9356351.0</v>
       </c>
       <c r="B239" t="n">
-        <v>280128.0</v>
+        <v>197681.0</v>
       </c>
       <c r="C239" t="n">
-        <v>1051083.0</v>
+        <v>314410.0</v>
       </c>
       <c r="D239" t="n">
-        <v>20286.0</v>
+        <v>15812.0</v>
       </c>
       <c r="E239" t="n">
-        <v>10966.0</v>
+        <v>8016.0</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>8560956.0</v>
+        <v>9368649.0</v>
       </c>
       <c r="B240" t="n">
-        <v>267734.0</v>
+        <v>190640.0</v>
       </c>
       <c r="C240" t="n">
-        <v>1039752.0</v>
+        <v>309153.0</v>
       </c>
       <c r="D240" t="n">
-        <v>15272.0</v>
+        <v>14109.0</v>
       </c>
       <c r="E240" t="n">
-        <v>9512.0</v>
+        <v>7072.0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>8584636.0</v>
+        <v>9379473.0</v>
       </c>
       <c r="B241" t="n">
-        <v>254917.0</v>
+        <v>183929.0</v>
       </c>
       <c r="C241" t="n">
-        <v>1028889.0</v>
+        <v>305040.0</v>
       </c>
       <c r="D241" t="n">
-        <v>14799.0</v>
+        <v>13085.0</v>
       </c>
       <c r="E241" t="n">
-        <v>8245.0</v>
+        <v>6362.0</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>8607875.0</v>
+        <v>9393199.0</v>
       </c>
       <c r="B242" t="n">
-        <v>241573.0</v>
+        <v>175832.0</v>
       </c>
       <c r="C242" t="n">
-        <v>1018994.0</v>
+        <v>299411.0</v>
       </c>
       <c r="D242" t="n">
-        <v>15162.0</v>
+        <v>12665.0</v>
       </c>
       <c r="E242" t="n">
-        <v>7922.0</v>
+        <v>6211.0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>8631644.0</v>
+        <v>9403634.0</v>
       </c>
       <c r="B243" t="n">
-        <v>229238.0</v>
+        <v>169585.0</v>
       </c>
       <c r="C243" t="n">
-        <v>1007560.0</v>
+        <v>295223.0</v>
       </c>
       <c r="D243" t="n">
-        <v>15752.0</v>
+        <v>12727.0</v>
       </c>
       <c r="E243" t="n">
-        <v>8504.0</v>
+        <v>6093.0</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>8662836.0</v>
+        <v>9417096.0</v>
       </c>
       <c r="B244" t="n">
-        <v>211611.0</v>
+        <v>160509.0</v>
       </c>
       <c r="C244" t="n">
-        <v>993995.0</v>
+        <v>290837.0</v>
       </c>
       <c r="D244" t="n">
-        <v>9584.0</v>
+        <v>8185.0</v>
       </c>
       <c r="E244" t="n">
-        <v>7712.0</v>
+        <v>6087.0</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>8692848.0</v>
+        <v>9431966.0</v>
       </c>
       <c r="B245" t="n">
-        <v>198982.0</v>
+        <v>149392.0</v>
       </c>
       <c r="C245" t="n">
-        <v>976612.0</v>
+        <v>287084.0</v>
       </c>
       <c r="D245" t="n">
-        <v>11974.0</v>
+        <v>8689.0</v>
       </c>
       <c r="E245" t="n">
-        <v>6963.0</v>
+        <v>5819.0</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>8716718.0</v>
+        <v>9442163.0</v>
       </c>
       <c r="B246" t="n">
-        <v>193462.0</v>
+        <v>144289.0</v>
       </c>
       <c r="C246" t="n">
-        <v>958262.0</v>
+        <v>281990.0</v>
       </c>
       <c r="D246" t="n">
-        <v>16999.0</v>
+        <v>12958.0</v>
       </c>
       <c r="E246" t="n">
-        <v>6933.0</v>
+        <v>5379.0</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>8742623.0</v>
+        <v>9454145.0</v>
       </c>
       <c r="B247" t="n">
-        <v>185204.0</v>
+        <v>137244.0</v>
       </c>
       <c r="C247" t="n">
-        <v>940615.0</v>
+        <v>277053.0</v>
       </c>
       <c r="D247" t="n">
-        <v>13002.0</v>
+        <v>11424.0</v>
       </c>
       <c r="E247" t="n">
-        <v>6290.0</v>
+        <v>4951.0</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>8766157.0</v>
+        <v>9461234.0</v>
       </c>
       <c r="B248" t="n">
-        <v>177718.0</v>
+        <v>133207.0</v>
       </c>
       <c r="C248" t="n">
-        <v>924567.0</v>
+        <v>274001.0</v>
       </c>
       <c r="D248" t="n">
-        <v>13280.0</v>
+        <v>11389.0</v>
       </c>
       <c r="E248" t="n">
-        <v>5247.0</v>
+        <v>4640.0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>8786963.0</v>
+        <v>9472665.0</v>
       </c>
       <c r="B249" t="n">
-        <v>172660.0</v>
+        <v>129500.0</v>
       </c>
       <c r="C249" t="n">
-        <v>908819.0</v>
+        <v>266277.0</v>
       </c>
       <c r="D249" t="n">
-        <v>15162.0</v>
+        <v>11680.0</v>
       </c>
       <c r="E249" t="n">
-        <v>5358.0</v>
+        <v>4541.0</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>8806965.0</v>
+        <v>9480334.0</v>
       </c>
       <c r="B250" t="n">
-        <v>170225.0</v>
+        <v>128830.0</v>
       </c>
       <c r="C250" t="n">
-        <v>891252.0</v>
+        <v>259278.0</v>
       </c>
       <c r="D250" t="n">
-        <v>16834.0</v>
+        <v>12109.0</v>
       </c>
       <c r="E250" t="n">
-        <v>6497.0</v>
+        <v>5059.0</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>8831021.0</v>
+        <v>9490198.0</v>
       </c>
       <c r="B251" t="n">
-        <v>165422.0</v>
+        <v>125426.0</v>
       </c>
       <c r="C251" t="n">
-        <v>871999.0</v>
+        <v>252818.0</v>
       </c>
       <c r="D251" t="n">
-        <v>13077.0</v>
+        <v>9091.0</v>
       </c>
       <c r="E251" t="n">
-        <v>6744.0</v>
+        <v>5362.0</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>8855033.0</v>
+        <v>9503979.0</v>
       </c>
       <c r="B252" t="n">
-        <v>161992.0</v>
+        <v>120852.0</v>
       </c>
       <c r="C252" t="n">
-        <v>851417.0</v>
+        <v>243611.0</v>
       </c>
       <c r="D252" t="n">
-        <v>13111.0</v>
+        <v>8367.0</v>
       </c>
       <c r="E252" t="n">
-        <v>6384.0</v>
+        <v>5294.0</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>8869971.0</v>
+        <v>9510749.0</v>
       </c>
       <c r="B253" t="n">
-        <v>168039.0</v>
+        <v>122314.0</v>
       </c>
       <c r="C253" t="n">
-        <v>830432.0</v>
+        <v>235379.0</v>
       </c>
       <c r="D253" t="n">
-        <v>21001.0</v>
+        <v>13534.0</v>
       </c>
       <c r="E253" t="n">
-        <v>6883.0</v>
+        <v>5212.0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>8888068.0</v>
+        <v>9519428.0</v>
       </c>
       <c r="B254" t="n">
-        <v>171265.0</v>
+        <v>122863.0</v>
       </c>
       <c r="C254" t="n">
-        <v>809109.0</v>
+        <v>226151.0</v>
       </c>
       <c r="D254" t="n">
-        <v>17300.0</v>
+        <v>12471.0</v>
       </c>
       <c r="E254" t="n">
-        <v>7019.0</v>
+        <v>4979.0</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>8904229.0</v>
+        <v>9526667.0</v>
       </c>
       <c r="B255" t="n">
-        <v>174833.0</v>
+        <v>124411.0</v>
       </c>
       <c r="C255" t="n">
-        <v>789380.0</v>
+        <v>217364.0</v>
       </c>
       <c r="D255" t="n">
-        <v>17763.0</v>
+        <v>12557.0</v>
       </c>
       <c r="E255" t="n">
-        <v>6471.0</v>
+        <v>4761.0</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>8918338.0</v>
+        <v>9534555.0</v>
       </c>
       <c r="B256" t="n">
-        <v>179954.0</v>
+        <v>126218.0</v>
       </c>
       <c r="C256" t="n">
-        <v>770150.0</v>
+        <v>207669.0</v>
       </c>
       <c r="D256" t="n">
-        <v>19534.0</v>
+        <v>12874.0</v>
       </c>
       <c r="E256" t="n">
-        <v>6622.0</v>
+        <v>4978.0</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>8931653.0</v>
+        <v>9539871.0</v>
       </c>
       <c r="B257" t="n">
-        <v>186753.0</v>
+        <v>130189.0</v>
       </c>
       <c r="C257" t="n">
-        <v>750036.0</v>
+        <v>198382.0</v>
       </c>
       <c r="D257" t="n">
-        <v>21512.0</v>
+        <v>13658.0</v>
       </c>
       <c r="E257" t="n">
-        <v>7936.0</v>
+        <v>5274.0</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>8949674.0</v>
+        <v>9546598.0</v>
       </c>
       <c r="B258" t="n">
-        <v>189464.0</v>
+        <v>130842.0</v>
       </c>
       <c r="C258" t="n">
-        <v>729304.0</v>
+        <v>191002.0</v>
       </c>
       <c r="D258" t="n">
-        <v>17355.0</v>
+        <v>10534.0</v>
       </c>
       <c r="E258" t="n">
-        <v>8760.0</v>
+        <v>5671.0</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>8967591.0</v>
+        <v>9557135.0</v>
       </c>
       <c r="B259" t="n">
-        <v>192232.0</v>
+        <v>128668.0</v>
       </c>
       <c r="C259" t="n">
-        <v>708619.0</v>
+        <v>182639.0</v>
       </c>
       <c r="D259" t="n">
-        <v>17434.0</v>
+        <v>9269.0</v>
       </c>
       <c r="E259" t="n">
-        <v>8681.0</v>
+        <v>5726.0</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>8975214.0</v>
+        <v>9560544.0</v>
       </c>
       <c r="B260" t="n">
-        <v>204221.0</v>
+        <v>132328.0</v>
       </c>
       <c r="C260" t="n">
-        <v>689007.0</v>
+        <v>175570.0</v>
       </c>
       <c r="D260" t="n">
-        <v>26402.0</v>
+        <v>14652.0</v>
       </c>
       <c r="E260" t="n">
-        <v>9101.0</v>
+        <v>5835.0</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>8985432.0</v>
+        <v>9565792.0</v>
       </c>
       <c r="B261" t="n">
-        <v>212052.0</v>
+        <v>134055.0</v>
       </c>
       <c r="C261" t="n">
-        <v>670958.0</v>
+        <v>168595.0</v>
       </c>
       <c r="D261" t="n">
-        <v>22336.0</v>
+        <v>13221.0</v>
       </c>
       <c r="E261" t="n">
-        <v>9341.0</v>
+        <v>5453.0</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>8994069.0</v>
+        <v>9567904.0</v>
       </c>
       <c r="B262" t="n">
-        <v>219159.0</v>
+        <v>136353.0</v>
       </c>
       <c r="C262" t="n">
-        <v>655214.0</v>
+        <v>164185.0</v>
       </c>
       <c r="D262" t="n">
-        <v>22585.0</v>
+        <v>13314.0</v>
       </c>
       <c r="E262" t="n">
-        <v>8486.0</v>
+        <v>5290.0</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>8998694.0</v>
+        <v>9569367.0</v>
       </c>
       <c r="B263" t="n">
-        <v>227818.0</v>
+        <v>138894.0</v>
       </c>
       <c r="C263" t="n">
-        <v>641930.0</v>
+        <v>160181.0</v>
       </c>
       <c r="D263" t="n">
-        <v>25076.0</v>
+        <v>13924.0</v>
       </c>
       <c r="E263" t="n">
-        <v>8749.0</v>
+        <v>5453.0</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>9001580.0</v>
+        <v>9567638.0</v>
       </c>
       <c r="B264" t="n">
-        <v>237181.0</v>
+        <v>142708.0</v>
       </c>
       <c r="C264" t="n">
-        <v>629681.0</v>
+        <v>158096.0</v>
       </c>
       <c r="D264" t="n">
-        <v>26855.0</v>
+        <v>14508.0</v>
       </c>
       <c r="E264" t="n">
-        <v>10453.0</v>
+        <v>5811.0</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>9009670.0</v>
+        <v>9568886.0</v>
       </c>
       <c r="B265" t="n">
-        <v>240960.0</v>
+        <v>144003.0</v>
       </c>
       <c r="C265" t="n">
-        <v>617812.0</v>
+        <v>155553.0</v>
       </c>
       <c r="D265" t="n">
-        <v>21957.0</v>
+        <v>11247.0</v>
       </c>
       <c r="E265" t="n">
-        <v>11128.0</v>
+        <v>6067.0</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>9017647.0</v>
+        <v>9571900.0</v>
       </c>
       <c r="B266" t="n">
-        <v>244902.0</v>
+        <v>141581.0</v>
       </c>
       <c r="C266" t="n">
-        <v>605893.0</v>
+        <v>154961.0</v>
       </c>
       <c r="D266" t="n">
-        <v>22270.0</v>
+        <v>9927.0</v>
       </c>
       <c r="E266" t="n">
-        <v>11075.0</v>
+        <v>6268.0</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>9015275.0</v>
+        <v>9568606.0</v>
       </c>
       <c r="B267" t="n">
-        <v>259188.0</v>
+        <v>144869.0</v>
       </c>
       <c r="C267" t="n">
-        <v>593979.0</v>
+        <v>154967.0</v>
       </c>
       <c r="D267" t="n">
-        <v>32312.0</v>
+        <v>15366.0</v>
       </c>
       <c r="E267" t="n">
-        <v>11617.0</v>
+        <v>6518.0</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>9017398.0</v>
+        <v>9566559.0</v>
       </c>
       <c r="B268" t="n">
-        <v>267723.0</v>
+        <v>146279.0</v>
       </c>
       <c r="C268" t="n">
-        <v>583321.0</v>
+        <v>155604.0</v>
       </c>
       <c r="D268" t="n">
-        <v>27043.0</v>
+        <v>13969.0</v>
       </c>
       <c r="E268" t="n">
-        <v>11656.0</v>
+        <v>5882.0</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>9018640.0</v>
+        <v>9687234.0</v>
       </c>
       <c r="B269" t="n">
-        <v>274980.0</v>
+        <v>82327.0</v>
       </c>
       <c r="C269" t="n">
-        <v>574822.0</v>
+        <v>98881.0</v>
       </c>
       <c r="D269" t="n">
-        <v>26931.0</v>
+        <v>8060.0</v>
       </c>
       <c r="E269" t="n">
-        <v>10795.0</v>
+        <v>3367.0</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>9017102.0</v>
+        <v>9686199.0</v>
       </c>
       <c r="B270" t="n">
-        <v>282794.0</v>
+        <v>82815.0</v>
       </c>
       <c r="C270" t="n">
-        <v>568546.0</v>
+        <v>99428.0</v>
       </c>
       <c r="D270" t="n">
-        <v>29204.0</v>
+        <v>7970.0</v>
       </c>
       <c r="E270" t="n">
-        <v>10771.0</v>
+        <v>3498.0</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>9012893.0</v>
+        <v>9684497.0</v>
       </c>
       <c r="B271" t="n">
-        <v>291817.0</v>
+        <v>84106.0</v>
       </c>
       <c r="C271" t="n">
-        <v>563732.0</v>
+        <v>99839.0</v>
       </c>
       <c r="D271" t="n">
-        <v>31825.0</v>
+        <v>8340.0</v>
       </c>
       <c r="E271" t="n">
-        <v>12771.0</v>
+        <v>3542.0</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>9016078.0</v>
+        <v>9684263.0</v>
       </c>
       <c r="B272" t="n">
-        <v>294003.0</v>
+        <v>83867.0</v>
       </c>
       <c r="C272" t="n">
-        <v>558361.0</v>
+        <v>100312.0</v>
       </c>
       <c r="D272" t="n">
-        <v>25321.0</v>
+        <v>6789.0</v>
       </c>
       <c r="E272" t="n">
-        <v>13419.0</v>
+        <v>3603.0</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>9018799.0</v>
+        <v>9685381.0</v>
       </c>
       <c r="B273" t="n">
-        <v>296102.0</v>
+        <v>82285.0</v>
       </c>
       <c r="C273" t="n">
-        <v>553541.0</v>
+        <v>100776.0</v>
       </c>
       <c r="D273" t="n">
-        <v>25366.0</v>
+        <v>5737.0</v>
       </c>
       <c r="E273" t="n">
-        <v>13080.0</v>
+        <v>3580.0</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>9008690.0</v>
+        <v>9683845.0</v>
       </c>
       <c r="B274" t="n">
-        <v>310481.0</v>
+        <v>83383.0</v>
       </c>
       <c r="C274" t="n">
-        <v>549271.0</v>
+        <v>101214.0</v>
       </c>
       <c r="D274" t="n">
-        <v>37320.0</v>
+        <v>8656.0</v>
       </c>
       <c r="E274" t="n">
-        <v>13495.0</v>
+        <v>3571.0</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>9013982.0</v>
+        <v>9685769.0</v>
       </c>
       <c r="B275" t="n">
-        <v>306644.0</v>
+        <v>80907.0</v>
       </c>
       <c r="C275" t="n">
-        <v>547816.0</v>
+        <v>101766.0</v>
       </c>
       <c r="D275" t="n">
-        <v>19311.0</v>
+        <v>5259.0</v>
       </c>
       <c r="E275" t="n">
-        <v>13590.0</v>
+        <v>3395.0</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>9003070.0</v>
+        <v>9685139.0</v>
       </c>
       <c r="B276" t="n">
-        <v>315752.0</v>
+        <v>81024.0</v>
       </c>
       <c r="C276" t="n">
-        <v>549620.0</v>
+        <v>102279.0</v>
       </c>
       <c r="D276" t="n">
-        <v>33431.0</v>
+        <v>7782.0</v>
       </c>
       <c r="E276" t="n">
-        <v>12489.0</v>
+        <v>3291.0</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>8993745.0</v>
+        <v>9684754.0</v>
       </c>
       <c r="B277" t="n">
-        <v>319840.0</v>
+        <v>80850.0</v>
       </c>
       <c r="C277" t="n">
-        <v>554857.0</v>
+        <v>102838.0</v>
       </c>
       <c r="D277" t="n">
-        <v>30585.0</v>
+        <v>7458.0</v>
       </c>
       <c r="E277" t="n">
-        <v>12539.0</v>
+        <v>3236.0</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>8982980.0</v>
+        <v>9684137.0</v>
       </c>
       <c r="B278" t="n">
-        <v>323919.0</v>
+        <v>80991.0</v>
       </c>
       <c r="C278" t="n">
-        <v>561543.0</v>
+        <v>103314.0</v>
       </c>
       <c r="D278" t="n">
-        <v>31531.0</v>
+        <v>7370.0</v>
       </c>
       <c r="E278" t="n">
-        <v>13596.0</v>
+        <v>3074.0</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>8978738.0</v>
+        <v>9684982.0</v>
       </c>
       <c r="B279" t="n">
-        <v>320246.0</v>
+        <v>79570.0</v>
       </c>
       <c r="C279" t="n">
-        <v>569458.0</v>
+        <v>103890.0</v>
       </c>
       <c r="D279" t="n">
-        <v>24462.0</v>
+        <v>5861.0</v>
       </c>
       <c r="E279" t="n">
-        <v>12944.0</v>
+        <v>3186.0</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>8973024.0</v>
+        <v>9687153.0</v>
       </c>
       <c r="B280" t="n">
-        <v>317259.0</v>
+        <v>77147.0</v>
       </c>
       <c r="C280" t="n">
-        <v>578159.0</v>
+        <v>104142.0</v>
       </c>
       <c r="D280" t="n">
-        <v>24983.0</v>
+        <v>5058.0</v>
       </c>
       <c r="E280" t="n">
-        <v>13125.0</v>
+        <v>3316.0</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>8950700.0</v>
+        <v>9687016.0</v>
       </c>
       <c r="B281" t="n">
-        <v>330229.0</v>
+        <v>77134.0</v>
       </c>
       <c r="C281" t="n">
-        <v>587513.0</v>
+        <v>104292.0</v>
       </c>
       <c r="D281" t="n">
-        <v>40204.0</v>
+        <v>7592.0</v>
       </c>
       <c r="E281" t="n">
-        <v>14901.0</v>
+        <v>3120.0</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>8934881.0</v>
+        <v>9687490.0</v>
       </c>
       <c r="B282" t="n">
-        <v>335689.0</v>
+        <v>76591.0</v>
       </c>
       <c r="C282" t="n">
-        <v>597872.0</v>
+        <v>104361.0</v>
       </c>
       <c r="D282" t="n">
-        <v>32360.0</v>
+        <v>7094.0</v>
       </c>
       <c r="E282" t="n">
-        <v>14136.0</v>
+        <v>2885.0</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>8928604.0</v>
+        <v>9690559.0</v>
       </c>
       <c r="B283" t="n">
-        <v>329672.0</v>
+        <v>73528.0</v>
       </c>
       <c r="C283" t="n">
-        <v>610166.0</v>
+        <v>104355.0</v>
       </c>
       <c r="D283" t="n">
-        <v>21231.0</v>
+        <v>4590.0</v>
       </c>
       <c r="E283" t="n">
-        <v>12382.0</v>
+        <v>3042.0</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>8906243.0</v>
+        <v>9690903.0</v>
       </c>
       <c r="B284" t="n">
-        <v>337534.0</v>
+        <v>73349.0</v>
       </c>
       <c r="C284" t="n">
-        <v>624665.0</v>
+        <v>104190.0</v>
       </c>
       <c r="D284" t="n">
-        <v>36435.0</v>
+        <v>7138.0</v>
       </c>
       <c r="E284" t="n">
-        <v>12509.0</v>
+        <v>3041.0</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>8886311.0</v>
+        <v>9691109.0</v>
       </c>
       <c r="B285" t="n">
-        <v>342318.0</v>
+        <v>73223.0</v>
       </c>
       <c r="C285" t="n">
-        <v>639813.0</v>
+        <v>104110.0</v>
       </c>
       <c r="D285" t="n">
-        <v>34127.0</v>
+        <v>6843.0</v>
       </c>
       <c r="E285" t="n">
-        <v>15201.0</v>
+        <v>2915.0</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>8876092.0</v>
+        <v>9693002.0</v>
       </c>
       <c r="B286" t="n">
-        <v>336624.0</v>
+        <v>71429.0</v>
       </c>
       <c r="C286" t="n">
-        <v>655726.0</v>
+        <v>104011.0</v>
       </c>
       <c r="D286" t="n">
-        <v>24632.0</v>
+        <v>5135.0</v>
       </c>
       <c r="E286" t="n">
-        <v>15163.0</v>
+        <v>2872.0</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>8865575.0</v>
+        <v>9695862.0</v>
       </c>
       <c r="B287" t="n">
-        <v>331442.0</v>
+        <v>69335.0</v>
       </c>
       <c r="C287" t="n">
-        <v>671425.0</v>
+        <v>103245.0</v>
       </c>
       <c r="D287" t="n">
-        <v>25230.0</v>
+        <v>4459.0</v>
       </c>
       <c r="E287" t="n">
-        <v>13221.0</v>
+        <v>2901.0</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>8842730.0</v>
+        <v>9696518.0</v>
       </c>
       <c r="B288" t="n">
-        <v>339968.0</v>
+        <v>69571.0</v>
       </c>
       <c r="C288" t="n">
-        <v>685744.0</v>
+        <v>102353.0</v>
       </c>
       <c r="D288" t="n">
-        <v>37489.0</v>
+        <v>6902.0</v>
       </c>
       <c r="E288" t="n">
-        <v>14423.0</v>
+        <v>2831.0</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>8825424.0</v>
+        <v>9697891.0</v>
       </c>
       <c r="B289" t="n">
-        <v>343669.0</v>
+        <v>69214.0</v>
       </c>
       <c r="C289" t="n">
-        <v>699349.0</v>
+        <v>101337.0</v>
       </c>
       <c r="D289" t="n">
-        <v>31972.0</v>
+        <v>6362.0</v>
       </c>
       <c r="E289" t="n">
-        <v>15028.0</v>
+        <v>2585.0</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>8809173.0</v>
+        <v>9699210.0</v>
       </c>
       <c r="B290" t="n">
-        <v>345867.0</v>
+        <v>68939.0</v>
       </c>
       <c r="C290" t="n">
-        <v>713402.0</v>
+        <v>100293.0</v>
       </c>
       <c r="D290" t="n">
-        <v>30664.0</v>
+        <v>6346.0</v>
       </c>
       <c r="E290" t="n">
-        <v>12923.0</v>
+        <v>2690.0</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>8791307.0</v>
+        <v>9700277.0</v>
       </c>
       <c r="B291" t="n">
-        <v>348317.0</v>
+        <v>68870.0</v>
       </c>
       <c r="C291" t="n">
-        <v>728818.0</v>
+        <v>99295.0</v>
       </c>
       <c r="D291" t="n">
-        <v>32371.0</v>
+        <v>6565.0</v>
       </c>
       <c r="E291" t="n">
-        <v>12225.0</v>
+        <v>2841.0</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>8772412.0</v>
+        <v>9700754.0</v>
       </c>
       <c r="B292" t="n">
-        <v>352053.0</v>
+        <v>69166.0</v>
       </c>
       <c r="C292" t="n">
-        <v>743977.0</v>
+        <v>98522.0</v>
       </c>
       <c r="D292" t="n">
-        <v>34373.0</v>
+        <v>6752.0</v>
       </c>
       <c r="E292" t="n">
-        <v>14770.0</v>
+        <v>2763.0</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>8762802.0</v>
+        <v>9702657.0</v>
       </c>
       <c r="B293" t="n">
-        <v>346951.0</v>
+        <v>68373.0</v>
       </c>
       <c r="C293" t="n">
-        <v>758689.0</v>
+        <v>97412.0</v>
       </c>
       <c r="D293" t="n">
-        <v>26027.0</v>
+        <v>5379.0</v>
       </c>
       <c r="E293" t="n">
-        <v>15714.0</v>
+        <v>2808.0</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>8753426.0</v>
+        <v>9705365.0</v>
       </c>
       <c r="B294" t="n">
-        <v>343014.0</v>
+        <v>66807.0</v>
       </c>
       <c r="C294" t="n">
-        <v>772002.0</v>
+        <v>96270.0</v>
       </c>
       <c r="D294" t="n">
-        <v>26868.0</v>
+        <v>4773.0</v>
       </c>
       <c r="E294" t="n">
-        <v>14855.0</v>
+        <v>2985.0</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>8735651.0</v>
+        <v>9706008.0</v>
       </c>
       <c r="B295" t="n">
-        <v>348523.0</v>
+        <v>67673.0</v>
       </c>
       <c r="C295" t="n">
-        <v>784268.0</v>
+        <v>94761.0</v>
       </c>
       <c r="D295" t="n">
-        <v>35953.0</v>
+        <v>6962.0</v>
       </c>
       <c r="E295" t="n">
-        <v>14932.0</v>
+        <v>2870.0</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>8724107.0</v>
+        <v>9707037.0</v>
       </c>
       <c r="B296" t="n">
-        <v>348906.0</v>
+        <v>68111.0</v>
       </c>
       <c r="C296" t="n">
-        <v>795429.0</v>
+        <v>93294.0</v>
       </c>
       <c r="D296" t="n">
-        <v>29872.0</v>
+        <v>6608.0</v>
       </c>
       <c r="E296" t="n">
-        <v>14820.0</v>
+        <v>2697.0</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>8713464.0</v>
+        <v>9708134.0</v>
       </c>
       <c r="B297" t="n">
-        <v>347797.0</v>
+        <v>68598.0</v>
       </c>
       <c r="C297" t="n">
-        <v>807181.0</v>
+        <v>91710.0</v>
       </c>
       <c r="D297" t="n">
-        <v>28669.0</v>
+        <v>6556.0</v>
       </c>
       <c r="E297" t="n">
-        <v>12971.0</v>
+        <v>2736.0</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>8702039.0</v>
+        <v>9708695.0</v>
       </c>
       <c r="B298" t="n">
-        <v>346824.0</v>
+        <v>69453.0</v>
       </c>
       <c r="C298" t="n">
-        <v>819579.0</v>
+        <v>90294.0</v>
       </c>
       <c r="D298" t="n">
-        <v>29933.0</v>
+        <v>6756.0</v>
       </c>
       <c r="E298" t="n">
-        <v>12407.0</v>
+        <v>2991.0</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>8690141.0</v>
+        <v>9708814.0</v>
       </c>
       <c r="B299" t="n">
-        <v>346621.0</v>
+        <v>70455.0</v>
       </c>
       <c r="C299" t="n">
-        <v>831680.0</v>
+        <v>89173.0</v>
       </c>
       <c r="D299" t="n">
-        <v>31572.0</v>
+        <v>6850.0</v>
       </c>
       <c r="E299" t="n">
-        <v>14236.0</v>
+        <v>2830.0</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>8687844.0</v>
+        <v>9710117.0</v>
       </c>
       <c r="B300" t="n">
-        <v>338294.0</v>
+        <v>70273.0</v>
       </c>
       <c r="C300" t="n">
-        <v>842304.0</v>
+        <v>88052.0</v>
       </c>
       <c r="D300" t="n">
-        <v>23687.0</v>
+        <v>5626.0</v>
       </c>
       <c r="E300" t="n">
-        <v>14726.0</v>
+        <v>2933.0</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>8685791.0</v>
+        <v>9712014.0</v>
       </c>
       <c r="B301" t="n">
-        <v>332032.0</v>
+        <v>68988.0</v>
       </c>
       <c r="C301" t="n">
-        <v>850619.0</v>
+        <v>87440.0</v>
       </c>
       <c r="D301" t="n">
-        <v>24855.0</v>
+        <v>4656.0</v>
       </c>
       <c r="E301" t="n">
-        <v>13934.0</v>
+        <v>3037.0</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>8674949.0</v>
+        <v>9711621.0</v>
       </c>
       <c r="B302" t="n">
-        <v>335508.0</v>
+        <v>69842.0</v>
       </c>
       <c r="C302" t="n">
-        <v>857985.0</v>
+        <v>86979.0</v>
       </c>
       <c r="D302" t="n">
-        <v>33977.0</v>
+        <v>7059.0</v>
       </c>
       <c r="E302" t="n">
-        <v>13976.0</v>
+        <v>2934.0</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>8671225.0</v>
+        <v>9711798.0</v>
       </c>
       <c r="B303" t="n">
-        <v>332922.0</v>
+        <v>70093.0</v>
       </c>
       <c r="C303" t="n">
-        <v>864295.0</v>
+        <v>86551.0</v>
       </c>
       <c r="D303" t="n">
-        <v>26991.0</v>
+        <v>6542.0</v>
       </c>
       <c r="E303" t="n">
-        <v>13455.0</v>
+        <v>2765.0</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>8667557.0</v>
+        <v>9711972.0</v>
       </c>
       <c r="B304" t="n">
-        <v>329497.0</v>
+        <v>70198.0</v>
       </c>
       <c r="C304" t="n">
-        <v>871388.0</v>
+        <v>86272.0</v>
       </c>
       <c r="D304" t="n">
-        <v>26609.0</v>
+        <v>6447.0</v>
       </c>
       <c r="E304" t="n">
-        <v>12178.0</v>
+        <v>2823.0</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>8662664.0</v>
+        <v>9711902.0</v>
       </c>
       <c r="B305" t="n">
-        <v>326742.0</v>
+        <v>70626.0</v>
       </c>
       <c r="C305" t="n">
-        <v>879036.0</v>
+        <v>85914.0</v>
       </c>
       <c r="D305" t="n">
-        <v>28041.0</v>
+        <v>6704.0</v>
       </c>
       <c r="E305" t="n">
-        <v>11726.0</v>
+        <v>2898.0</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>8663614.0</v>
+        <v>9712903.0</v>
       </c>
       <c r="B306" t="n">
-        <v>318486.0</v>
+        <v>70167.0</v>
       </c>
       <c r="C306" t="n">
-        <v>886342.0</v>
+        <v>85372.0</v>
       </c>
       <c r="D306" t="n">
-        <v>23373.0</v>
+        <v>5455.0</v>
       </c>
       <c r="E306" t="n">
-        <v>13340.0</v>
+        <v>2820.0</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>8672864.0</v>
+        <v>9714639.0</v>
       </c>
       <c r="B307" t="n">
-        <v>304520.0</v>
+        <v>68693.0</v>
       </c>
       <c r="C307" t="n">
-        <v>891058.0</v>
+        <v>85110.0</v>
       </c>
       <c r="D307" t="n">
-        <v>17247.0</v>
+        <v>4436.0</v>
       </c>
       <c r="E307" t="n">
-        <v>13737.0</v>
+        <v>2875.0</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>8678866.0</v>
+        <v>9716606.0</v>
       </c>
       <c r="B308" t="n">
-        <v>296113.0</v>
+        <v>67005.0</v>
       </c>
       <c r="C308" t="n">
-        <v>893463.0</v>
+        <v>84831.0</v>
       </c>
       <c r="D308" t="n">
-        <v>21450.0</v>
+        <v>4372.0</v>
       </c>
       <c r="E308" t="n">
-        <v>12937.0</v>
+        <v>2744.0</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>8684520.0</v>
+        <v>9717598.0</v>
       </c>
       <c r="B309" t="n">
-        <v>290166.0</v>
+        <v>65723.0</v>
       </c>
       <c r="C309" t="n">
-        <v>893756.0</v>
+        <v>85121.0</v>
       </c>
       <c r="D309" t="n">
-        <v>22481.0</v>
+        <v>5104.0</v>
       </c>
       <c r="E309" t="n">
-        <v>12410.0</v>
+        <v>2508.0</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>8695473.0</v>
+        <v>9719035.0</v>
       </c>
       <c r="B310" t="n">
-        <v>279767.0</v>
+        <v>63961.0</v>
       </c>
       <c r="C310" t="n">
-        <v>893202.0</v>
+        <v>85446.0</v>
       </c>
       <c r="D310" t="n">
-        <v>17017.0</v>
+        <v>4733.0</v>
       </c>
       <c r="E310" t="n">
-        <v>10794.0</v>
+        <v>2385.0</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>8707135.0</v>
+        <v>9720441.0</v>
       </c>
       <c r="B311" t="n">
-        <v>267173.0</v>
+        <v>62259.0</v>
       </c>
       <c r="C311" t="n">
-        <v>894134.0</v>
+        <v>85742.0</v>
       </c>
       <c r="D311" t="n">
-        <v>15572.0</v>
+        <v>4663.0</v>
       </c>
       <c r="E311" t="n">
-        <v>8793.0</v>
+        <v>2276.0</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>8717990.0</v>
+        <v>9721902.0</v>
       </c>
       <c r="B312" t="n">
-        <v>254407.0</v>
+        <v>60511.0</v>
       </c>
       <c r="C312" t="n">
-        <v>896045.0</v>
+        <v>86029.0</v>
       </c>
       <c r="D312" t="n">
-        <v>16045.0</v>
+        <v>4440.0</v>
       </c>
       <c r="E312" t="n">
-        <v>8478.0</v>
+        <v>2200.0</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>8728984.0</v>
+        <v>9723415.0</v>
       </c>
       <c r="B313" t="n">
-        <v>241920.0</v>
+        <v>58816.0</v>
       </c>
       <c r="C313" t="n">
-        <v>897538.0</v>
+        <v>86211.0</v>
       </c>
       <c r="D313" t="n">
-        <v>16254.0</v>
+        <v>4335.0</v>
       </c>
       <c r="E313" t="n">
-        <v>9459.0</v>
+        <v>2043.0</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>8747695.0</v>
+        <v>9725967.0</v>
       </c>
       <c r="B314" t="n">
-        <v>223382.0</v>
+        <v>56184.0</v>
       </c>
       <c r="C314" t="n">
-        <v>897365.0</v>
+        <v>86291.0</v>
       </c>
       <c r="D314" t="n">
-        <v>9862.0</v>
+        <v>3256.0</v>
       </c>
       <c r="E314" t="n">
-        <v>8571.0</v>
+        <v>1941.0</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>8764691.0</v>
+        <v>9728678.0</v>
       </c>
       <c r="B315" t="n">
-        <v>209757.0</v>
+        <v>53495.0</v>
       </c>
       <c r="C315" t="n">
-        <v>893994.0</v>
+        <v>86269.0</v>
       </c>
       <c r="D315" t="n">
-        <v>12347.0</v>
+        <v>3230.0</v>
       </c>
       <c r="E315" t="n">
-        <v>7568.0</v>
+        <v>1970.0</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>8780016.0</v>
+        <v>9730730.0</v>
       </c>
       <c r="B316" t="n">
-        <v>200992.0</v>
+        <v>51473.0</v>
       </c>
       <c r="C316" t="n">
-        <v>887434.0</v>
+        <v>86239.0</v>
       </c>
       <c r="D316" t="n">
-        <v>15001.0</v>
+        <v>4153.0</v>
       </c>
       <c r="E316" t="n">
-        <v>7247.0</v>
+        <v>1870.0</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>8802780.0</v>
+        <v>9734156.0</v>
       </c>
       <c r="B317" t="n">
-        <v>186387.0</v>
+        <v>48139.0</v>
       </c>
       <c r="C317" t="n">
-        <v>879275.0</v>
+        <v>86147.0</v>
       </c>
       <c r="D317" t="n">
-        <v>7648.0</v>
+        <v>2865.0</v>
       </c>
       <c r="E317" t="n">
-        <v>6702.0</v>
+        <v>1673.0</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>8820915.0</v>
+        <v>9736774.0</v>
       </c>
       <c r="B318" t="n">
-        <v>175795.0</v>
+        <v>46008.0</v>
       </c>
       <c r="C318" t="n">
-        <v>871732.0</v>
+        <v>85660.0</v>
       </c>
       <c r="D318" t="n">
-        <v>10828.0</v>
+        <v>3724.0</v>
       </c>
       <c r="E318" t="n">
-        <v>5410.0</v>
+        <v>1619.0</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>8839367.0</v>
+        <v>9739480.0</v>
       </c>
       <c r="B319" t="n">
-        <v>164275.0</v>
+        <v>44216.0</v>
       </c>
       <c r="C319" t="n">
-        <v>864800.0</v>
+        <v>84746.0</v>
       </c>
       <c r="D319" t="n">
-        <v>9819.0</v>
+        <v>3570.0</v>
       </c>
       <c r="E319" t="n">
-        <v>5309.0</v>
+        <v>1598.0</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>8857894.0</v>
+        <v>9741913.0</v>
       </c>
       <c r="B320" t="n">
-        <v>153604.0</v>
+        <v>42772.0</v>
       </c>
       <c r="C320" t="n">
-        <v>856944.0</v>
+        <v>83757.0</v>
       </c>
       <c r="D320" t="n">
-        <v>9939.0</v>
+        <v>3481.0</v>
       </c>
       <c r="E320" t="n">
-        <v>5467.0</v>
+        <v>1582.0</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>8881830.0</v>
+        <v>9745199.0</v>
       </c>
       <c r="B321" t="n">
-        <v>140403.0</v>
+        <v>40864.0</v>
       </c>
       <c r="C321" t="n">
-        <v>846209.0</v>
+        <v>82379.0</v>
       </c>
       <c r="D321" t="n">
-        <v>5985.0</v>
+        <v>2624.0</v>
       </c>
       <c r="E321" t="n">
-        <v>4958.0</v>
+        <v>1508.0</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>8904638.0</v>
+        <v>9748583.0</v>
       </c>
       <c r="B322" t="n">
-        <v>130737.0</v>
+        <v>39261.0</v>
       </c>
       <c r="C322" t="n">
-        <v>833067.0</v>
+        <v>80598.0</v>
       </c>
       <c r="D322" t="n">
-        <v>7829.0</v>
+        <v>2676.0</v>
       </c>
       <c r="E322" t="n">
-        <v>4563.0</v>
+        <v>1498.0</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>8925027.0</v>
+        <v>9751577.0</v>
       </c>
       <c r="B323" t="n">
-        <v>125666.0</v>
+        <v>38257.0</v>
       </c>
       <c r="C323" t="n">
-        <v>817749.0</v>
+        <v>78608.0</v>
       </c>
       <c r="D323" t="n">
-        <v>10740.0</v>
+        <v>3392.0</v>
       </c>
       <c r="E323" t="n">
-        <v>4597.0</v>
+        <v>1417.0</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>8947987.0</v>
+        <v>9754917.0</v>
       </c>
       <c r="B324" t="n">
-        <v>119138.0</v>
+        <v>37025.0</v>
       </c>
       <c r="C324" t="n">
-        <v>801317.0</v>
+        <v>76500.0</v>
       </c>
       <c r="D324" t="n">
-        <v>7845.0</v>
+        <v>3155.0</v>
       </c>
       <c r="E324" t="n">
-        <v>4195.0</v>
+        <v>1365.0</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>8970764.0</v>
+        <v>9758056.0</v>
       </c>
       <c r="B325" t="n">
-        <v>112998.0</v>
+        <v>36110.0</v>
       </c>
       <c r="C325" t="n">
-        <v>784680.0</v>
+        <v>74276.0</v>
       </c>
       <c r="D325" t="n">
-        <v>7667.0</v>
+        <v>3226.0</v>
       </c>
       <c r="E325" t="n">
-        <v>3433.0</v>
+        <v>1445.0</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>8991938.0</v>
+        <v>9761053.0</v>
       </c>
       <c r="B326" t="n">
-        <v>108210.0</v>
+        <v>35470.0</v>
       </c>
       <c r="C326" t="n">
-        <v>768294.0</v>
+        <v>71919.0</v>
       </c>
       <c r="D326" t="n">
-        <v>8315.0</v>
+        <v>3191.0</v>
       </c>
       <c r="E326" t="n">
-        <v>3485.0</v>
+        <v>1366.0</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>9012824.0</v>
+        <v>9763875.0</v>
       </c>
       <c r="B327" t="n">
-        <v>104716.0</v>
+        <v>34990.0</v>
       </c>
       <c r="C327" t="n">
-        <v>750902.0</v>
+        <v>69577.0</v>
       </c>
       <c r="D327" t="n">
-        <v>8892.0</v>
+        <v>3208.0</v>
       </c>
       <c r="E327" t="n">
-        <v>4171.0</v>
+        <v>1375.0</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>9037934.0</v>
+        <v>9767321.0</v>
       </c>
       <c r="B328" t="n">
-        <v>98888.0</v>
+        <v>33963.0</v>
       </c>
       <c r="C328" t="n">
-        <v>731620.0</v>
+        <v>67158.0</v>
       </c>
       <c r="D328" t="n">
-        <v>5796.0</v>
+        <v>2442.0</v>
       </c>
       <c r="E328" t="n">
-        <v>4082.0</v>
+        <v>1320.0</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>9062373.0</v>
+        <v>9770636.0</v>
       </c>
       <c r="B329" t="n">
-        <v>95494.0</v>
+        <v>33202.0</v>
       </c>
       <c r="C329" t="n">
-        <v>710575.0</v>
+        <v>64604.0</v>
       </c>
       <c r="D329" t="n">
-        <v>7336.0</v>
+        <v>2604.0</v>
       </c>
       <c r="E329" t="n">
-        <v>3640.0</v>
+        <v>1378.0</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>9085632.0</v>
+        <v>9773520.0</v>
       </c>
       <c r="B330" t="n">
-        <v>94537.0</v>
+        <v>33097.0</v>
       </c>
       <c r="C330" t="n">
-        <v>688273.0</v>
+        <v>61825.0</v>
       </c>
       <c r="D330" t="n">
-        <v>8755.0</v>
+        <v>3291.0</v>
       </c>
       <c r="E330" t="n">
-        <v>3853.0</v>
+        <v>1314.0</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>9110240.0</v>
+        <v>9776603.0</v>
       </c>
       <c r="B331" t="n">
-        <v>91886.0</v>
+        <v>32830.0</v>
       </c>
       <c r="C331" t="n">
-        <v>666316.0</v>
+        <v>59009.0</v>
       </c>
       <c r="D331" t="n">
-        <v>6509.0</v>
+        <v>3116.0</v>
       </c>
       <c r="E331" t="n">
-        <v>3615.0</v>
+        <v>1296.0</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>9134260.0</v>
+        <v>9779405.0</v>
       </c>
       <c r="B332" t="n">
-        <v>89575.0</v>
+        <v>32579.0</v>
       </c>
       <c r="C332" t="n">
-        <v>644607.0</v>
+        <v>56458.0</v>
       </c>
       <c r="D332" t="n">
-        <v>6481.0</v>
+        <v>3053.0</v>
       </c>
       <c r="E332" t="n">
-        <v>3056.0</v>
+        <v>1341.0</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>9157066.0</v>
+        <v>9781662.0</v>
       </c>
       <c r="B333" t="n">
-        <v>87482.0</v>
+        <v>32428.0</v>
       </c>
       <c r="C333" t="n">
-        <v>623894.0</v>
+        <v>54352.0</v>
       </c>
       <c r="D333" t="n">
-        <v>6771.0</v>
+        <v>3105.0</v>
       </c>
       <c r="E333" t="n">
-        <v>3125.0</v>
+        <v>1338.0</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>9179716.0</v>
+        <v>9783493.0</v>
       </c>
       <c r="B334" t="n">
-        <v>86043.0</v>
+        <v>32538.0</v>
       </c>
       <c r="C334" t="n">
-        <v>602683.0</v>
+        <v>52411.0</v>
       </c>
       <c r="D334" t="n">
-        <v>7384.0</v>
+        <v>3094.0</v>
       </c>
       <c r="E334" t="n">
-        <v>3540.0</v>
+        <v>1259.0</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>9205590.0</v>
+        <v>9785626.0</v>
       </c>
       <c r="B335" t="n">
-        <v>82301.0</v>
+        <v>31915.0</v>
       </c>
       <c r="C335" t="n">
-        <v>580551.0</v>
+        <v>50901.0</v>
       </c>
       <c r="D335" t="n">
-        <v>4922.0</v>
+        <v>2399.0</v>
       </c>
       <c r="E335" t="n">
-        <v>3321.0</v>
+        <v>1240.0</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>9231187.0</v>
+        <v>9787395.0</v>
       </c>
       <c r="B336" t="n">
-        <v>80225.0</v>
+        <v>31419.0</v>
       </c>
       <c r="C336" t="n">
-        <v>557030.0</v>
+        <v>49628.0</v>
       </c>
       <c r="D336" t="n">
-        <v>6032.0</v>
+        <v>2510.0</v>
       </c>
       <c r="E336" t="n">
-        <v>3087.0</v>
+        <v>1323.0</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>9257425.0</v>
+        <v>9789185.0</v>
       </c>
       <c r="B337" t="n">
-        <v>77438.0</v>
+        <v>30869.0</v>
       </c>
       <c r="C337" t="n">
-        <v>533579.0</v>
+        <v>48388.0</v>
       </c>
       <c r="D337" t="n">
-        <v>4975.0</v>
+        <v>2606.0</v>
       </c>
       <c r="E337" t="n">
-        <v>3143.0</v>
+        <v>1314.0</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>9283265.0</v>
+        <v>9791140.0</v>
       </c>
       <c r="B338" t="n">
-        <v>73988.0</v>
+        <v>30131.0</v>
       </c>
       <c r="C338" t="n">
-        <v>511189.0</v>
+        <v>47171.0</v>
       </c>
       <c r="D338" t="n">
-        <v>4017.0</v>
+        <v>2432.0</v>
       </c>
       <c r="E338" t="n">
-        <v>3112.0</v>
+        <v>1185.0</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>9308510.0</v>
+        <v>9792906.0</v>
       </c>
       <c r="B339" t="n">
-        <v>69547.0</v>
+        <v>29354.0</v>
       </c>
       <c r="C339" t="n">
-        <v>490385.0</v>
+        <v>46182.0</v>
       </c>
       <c r="D339" t="n">
-        <v>3183.0</v>
+        <v>2375.0</v>
       </c>
       <c r="E339" t="n">
-        <v>2588.0</v>
+        <v>1221.0</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>9333528.0</v>
+        <v>9794347.0</v>
       </c>
       <c r="B340" t="n">
-        <v>64353.0</v>
+        <v>28671.0</v>
       </c>
       <c r="C340" t="n">
-        <v>470561.0</v>
+        <v>45424.0</v>
       </c>
       <c r="D340" t="n">
-        <v>2398.0</v>
+        <v>2390.0</v>
       </c>
       <c r="E340" t="n">
-        <v>2356.0</v>
+        <v>1130.0</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>9359673.0</v>
+        <v>9795636.0</v>
       </c>
       <c r="B341" t="n">
-        <v>58682.0</v>
+        <v>28164.0</v>
       </c>
       <c r="C341" t="n">
-        <v>450087.0</v>
+        <v>44642.0</v>
       </c>
       <c r="D341" t="n">
-        <v>2021.0</v>
+        <v>2399.0</v>
       </c>
       <c r="E341" t="n">
-        <v>2160.0</v>
+        <v>1055.0</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>9387359.0</v>
+        <v>9797093.0</v>
       </c>
       <c r="B342" t="n">
-        <v>52493.0</v>
+        <v>27227.0</v>
       </c>
       <c r="C342" t="n">
-        <v>428590.0</v>
+        <v>44122.0</v>
       </c>
       <c r="D342" t="n">
-        <v>1125.0</v>
+        <v>2012.0</v>
       </c>
       <c r="E342" t="n">
-        <v>1727.0</v>
+        <v>999.0</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>9415168.0</v>
+        <v>9798337.0</v>
       </c>
       <c r="B343" t="n">
-        <v>46435.0</v>
+        <v>26444.0</v>
       </c>
       <c r="C343" t="n">
-        <v>406839.0</v>
+        <v>43661.0</v>
       </c>
       <c r="D343" t="n">
-        <v>932.0</v>
+        <v>2121.0</v>
       </c>
       <c r="E343" t="n">
-        <v>1448.0</v>
+        <v>1052.0</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>9442262.0</v>
+        <v>9799486.0</v>
       </c>
       <c r="B344" t="n">
-        <v>41336.0</v>
+        <v>25809.0</v>
       </c>
       <c r="C344" t="n">
-        <v>384844.0</v>
+        <v>43147.0</v>
       </c>
       <c r="D344" t="n">
-        <v>1306.0</v>
+        <v>2247.0</v>
       </c>
       <c r="E344" t="n">
-        <v>1108.0</v>
+        <v>989.0</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>9467072.0</v>
+        <v>9800773.0</v>
       </c>
       <c r="B345" t="n">
-        <v>36441.0</v>
+        <v>24864.0</v>
       </c>
       <c r="C345" t="n">
-        <v>364929.0</v>
+        <v>42805.0</v>
       </c>
       <c r="D345" t="n">
-        <v>1162.0</v>
+        <v>2096.0</v>
       </c>
       <c r="E345" t="n">
-        <v>875.0</v>
+        <v>895.0</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>9489798.0</v>
+        <v>9801923.0</v>
       </c>
       <c r="B346" t="n">
-        <v>31931.0</v>
+        <v>24036.0</v>
       </c>
       <c r="C346" t="n">
-        <v>346713.0</v>
+        <v>42483.0</v>
       </c>
       <c r="D346" t="n">
-        <v>1040.0</v>
+        <v>2154.0</v>
       </c>
       <c r="E346" t="n">
-        <v>648.0</v>
+        <v>973.0</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>9511086.0</v>
+        <v>9803110.0</v>
       </c>
       <c r="B347" t="n">
-        <v>27546.0</v>
+        <v>23340.0</v>
       </c>
       <c r="C347" t="n">
-        <v>329810.0</v>
+        <v>41992.0</v>
       </c>
       <c r="D347" t="n">
-        <v>965.0</v>
+        <v>2069.0</v>
       </c>
       <c r="E347" t="n">
-        <v>428.0</v>
+        <v>957.0</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>9531674.0</v>
+        <v>9804087.0</v>
       </c>
       <c r="B348" t="n">
-        <v>23424.0</v>
+        <v>22675.0</v>
       </c>
       <c r="C348" t="n">
-        <v>313344.0</v>
+        <v>41680.0</v>
       </c>
       <c r="D348" t="n">
-        <v>832.0</v>
+        <v>2007.0</v>
       </c>
       <c r="E348" t="n">
-        <v>437.0</v>
+        <v>884.0</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>9552478.0</v>
+        <v>9805227.0</v>
       </c>
       <c r="B349" t="n">
-        <v>19529.0</v>
+        <v>21994.0</v>
       </c>
       <c r="C349" t="n">
-        <v>296435.0</v>
+        <v>41221.0</v>
       </c>
       <c r="D349" t="n">
-        <v>535.0</v>
+        <v>1882.0</v>
       </c>
       <c r="E349" t="n">
-        <v>537.0</v>
+        <v>876.0</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>9572559.0</v>
+        <v>9806356.0</v>
       </c>
       <c r="B350" t="n">
-        <v>16306.0</v>
+        <v>21338.0</v>
       </c>
       <c r="C350" t="n">
-        <v>279577.0</v>
+        <v>40748.0</v>
       </c>
       <c r="D350" t="n">
-        <v>529.0</v>
+        <v>1877.0</v>
       </c>
       <c r="E350" t="n">
-        <v>424.0</v>
+        <v>877.0</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>9591107.0</v>
+        <v>9807451.0</v>
       </c>
       <c r="B351" t="n">
-        <v>13833.0</v>
+        <v>20954.0</v>
       </c>
       <c r="C351" t="n">
-        <v>263502.0</v>
+        <v>40037.0</v>
       </c>
       <c r="D351" t="n">
-        <v>638.0</v>
+        <v>2061.0</v>
       </c>
       <c r="E351" t="n">
-        <v>396.0</v>
+        <v>833.0</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>9607978.0</v>
+        <v>9808700.0</v>
       </c>
       <c r="B352" t="n">
-        <v>11904.0</v>
+        <v>20548.0</v>
       </c>
       <c r="C352" t="n">
-        <v>248560.0</v>
+        <v>39194.0</v>
       </c>
       <c r="D352" t="n">
-        <v>624.0</v>
+        <v>1921.0</v>
       </c>
       <c r="E352" t="n">
-        <v>357.0</v>
+        <v>811.0</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>9623192.0</v>
+        <v>9809853.0</v>
       </c>
       <c r="B353" t="n">
-        <v>10578.0</v>
+        <v>20219.0</v>
       </c>
       <c r="C353" t="n">
-        <v>234672.0</v>
+        <v>38370.0</v>
       </c>
       <c r="D353" t="n">
-        <v>597.0</v>
+        <v>1999.0</v>
       </c>
       <c r="E353" t="n">
-        <v>286.0</v>
+        <v>826.0</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>9637075.0</v>
+        <v>9811016.0</v>
       </c>
       <c r="B354" t="n">
-        <v>9623.0</v>
+        <v>19999.0</v>
       </c>
       <c r="C354" t="n">
-        <v>221744.0</v>
+        <v>37427.0</v>
       </c>
       <c r="D354" t="n">
-        <v>490.0</v>
+        <v>1910.0</v>
       </c>
       <c r="E354" t="n">
-        <v>252.0</v>
+        <v>794.0</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>9650391.0</v>
+        <v>9811910.0</v>
       </c>
       <c r="B355" t="n">
-        <v>8884.0</v>
+        <v>19820.0</v>
       </c>
       <c r="C355" t="n">
-        <v>209167.0</v>
+        <v>36712.0</v>
       </c>
       <c r="D355" t="n">
-        <v>491.0</v>
+        <v>2012.0</v>
       </c>
       <c r="E355" t="n">
-        <v>213.0</v>
+        <v>770.0</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>9663093.0</v>
+        <v>9813055.0</v>
       </c>
       <c r="B356" t="n">
-        <v>8109.0</v>
+        <v>19512.0</v>
       </c>
       <c r="C356" t="n">
-        <v>197240.0</v>
+        <v>35875.0</v>
       </c>
       <c r="D356" t="n">
-        <v>401.0</v>
+        <v>1804.0</v>
       </c>
       <c r="E356" t="n">
-        <v>262.0</v>
+        <v>848.0</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>9675121.0</v>
+        <v>9814172.0</v>
       </c>
       <c r="B357" t="n">
-        <v>7352.0</v>
+        <v>19208.0</v>
       </c>
       <c r="C357" t="n">
-        <v>185969.0</v>
+        <v>35062.0</v>
       </c>
       <c r="D357" t="n">
-        <v>358.0</v>
+        <v>1787.0</v>
       </c>
       <c r="E357" t="n">
-        <v>234.0</v>
+        <v>801.0</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>9686343.0</v>
+        <v>9815141.0</v>
       </c>
       <c r="B358" t="n">
-        <v>6789.0</v>
+        <v>19013.0</v>
       </c>
       <c r="C358" t="n">
-        <v>175310.0</v>
+        <v>34288.0</v>
       </c>
       <c r="D358" t="n">
-        <v>402.0</v>
+        <v>1913.0</v>
       </c>
       <c r="E358" t="n">
-        <v>210.0</v>
+        <v>809.0</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>9696631.0</v>
+        <v>9816274.0</v>
       </c>
       <c r="B359" t="n">
-        <v>6325.0</v>
+        <v>18812.0</v>
       </c>
       <c r="C359" t="n">
-        <v>165486.0</v>
+        <v>33356.0</v>
       </c>
       <c r="D359" t="n">
-        <v>442.0</v>
+        <v>1908.0</v>
       </c>
       <c r="E359" t="n">
-        <v>187.0</v>
+        <v>804.0</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>9705961.0</v>
+        <v>9817326.0</v>
       </c>
       <c r="B360" t="n">
-        <v>5925.0</v>
+        <v>18741.0</v>
       </c>
       <c r="C360" t="n">
-        <v>156556.0</v>
+        <v>32375.0</v>
       </c>
       <c r="D360" t="n">
-        <v>382.0</v>
+        <v>1930.0</v>
       </c>
       <c r="E360" t="n">
-        <v>191.0</v>
+        <v>802.0</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>9714697.0</v>
+        <v>9818187.0</v>
       </c>
       <c r="B361" t="n">
-        <v>5683.0</v>
+        <v>18653.0</v>
       </c>
       <c r="C361" t="n">
-        <v>148062.0</v>
+        <v>31602.0</v>
       </c>
       <c r="D361" t="n">
-        <v>424.0</v>
+        <v>1904.0</v>
       </c>
       <c r="E361" t="n">
-        <v>168.0</v>
+        <v>779.0</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>9723124.0</v>
+        <v>9819003.0</v>
       </c>
       <c r="B362" t="n">
-        <v>5407.0</v>
+        <v>18681.0</v>
       </c>
       <c r="C362" t="n">
-        <v>139911.0</v>
+        <v>30758.0</v>
       </c>
       <c r="D362" t="n">
-        <v>365.0</v>
+        <v>1856.0</v>
       </c>
       <c r="E362" t="n">
-        <v>140.0</v>
+        <v>799.0</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>9731663.0</v>
+        <v>9819764.0</v>
       </c>
       <c r="B363" t="n">
-        <v>5136.0</v>
+        <v>18476.0</v>
       </c>
       <c r="C363" t="n">
-        <v>131643.0</v>
+        <v>30202.0</v>
       </c>
       <c r="D363" t="n">
-        <v>325.0</v>
+        <v>1802.0</v>
       </c>
       <c r="E363" t="n">
-        <v>189.0</v>
+        <v>799.0</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>9740135.0</v>
+        <v>9820483.0</v>
       </c>
       <c r="B364" t="n">
-        <v>4924.0</v>
+        <v>18276.0</v>
       </c>
       <c r="C364" t="n">
-        <v>123383.0</v>
+        <v>29683.0</v>
       </c>
       <c r="D364" t="n">
-        <v>351.0</v>
+        <v>1814.0</v>
       </c>
       <c r="E364" t="n">
-        <v>183.0</v>
+        <v>812.0</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>9748426.0</v>
+        <v>9821001.0</v>
       </c>
       <c r="B365" t="n">
-        <v>4744.0</v>
+        <v>18271.0</v>
       </c>
       <c r="C365" t="n">
-        <v>115272.0</v>
+        <v>29170.0</v>
       </c>
       <c r="D365" t="n">
-        <v>373.0</v>
+        <v>1927.0</v>
       </c>
       <c r="E365" t="n">
-        <v>164.0</v>
+        <v>809.0</v>
       </c>
     </row>
   </sheetData>
